--- a/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForDiabetes.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForDiabetes.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D76DF4CA-82BB-4F3A-A091-59C508D4FD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAD69FD-1228-4424-A612-AFADDBBDCD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +16,8 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -21,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="654">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -3487,12 +3491,815 @@
   <si>
     <t>https://www.tarladalal.com/pyaz-ki-roti-healthy-pyaz-ka-paratha-5581r</t>
   </si>
+  <si>
+    <t xml:space="preserve"> 33302</t>
+  </si>
+  <si>
+    <t>Buckwheat Khichdi, Farali Kutto Khichdi Recipe, Vrat Recipe, Fasting Recipe</t>
+  </si>
+  <si>
+    <t>Navratri Vrat</t>
+  </si>
+  <si>
+    <t>For Buckwheat Khichdi
+1 cup buckwheat (kuttu or kutti no daro)
+1/2 cup curd (dahi)
+1 tbsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup raw potato cubes
+1 tbsp ginger-green chilli paste
+rock salt (sendha namak) or table salt to taste
+2 tbsp roasted and coarsely powdered peanuts
+1/2 tsp lemon juice
+For The Garnish
+1 tbsp finely chopped coriander (dhania) optional
+1 tsp roasted sesame seeds (til)
+For Serving With Buckwheat Khichdi
+peanut kadhi</t>
+  </si>
+  <si>
+    <t>Method
+For buckwheat khichdi
+To make buckwheat khichdi, clean, wash and soak the buckwheat in enough water for 2 hours. Drain and keep aside.
+Combine 1½ cups of water and curds in a deep bowl and whisk well. Keep aside.
+Heat the oil in a deep non-stick pan and add cumin seeds.
+When the seeds crackle, add the potatoes, mix well and cover and cook on a medium flame for 2 to 3 minutes or till the potatoes are half cooked, while stirring occasionally.
+Lower the flame, add the ginger-green chilli paste, buckwheat, curds-water mixture and rock salt, mix well and cover and cook on a slow flame for 5 to 6 minutes, while stirring occasionally.
+Add the peanuts and lemon juice, mix well and cook on a medium flame for 1 minute.
+Garnish buckwheat khichdi with coriander and sesame seeds and serve immediately with peanut kadhi.</t>
+  </si>
+  <si>
+    <t>Energy 444 cal
+Protein 12.8 g
+Carbohydrates 55.5 g
+Fiber 7.5 g
+Fat 18.4 g
+Cholesterol 8 mg
+Sodium 25.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/buckwheat-khichdi-farali-kutto-khichdi-recipe-vrat-recipe-fasting-recipe-33302r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38904</t>
+  </si>
+  <si>
+    <t>Bhindi in Peanut Masala</t>
+  </si>
+  <si>
+    <t>Kadai Veg</t>
+  </si>
+  <si>
+    <t>For Bhindi Peanut Masala
+2 cups chopped ladies finger (bhindi)
+1 tbsp coconut oil or oil
+a pinch of asafoetida (hing)
+salt to taste
+To Be Mixed Together For The Peanut Masala
+1/4 cup roasted and coarsely crushed peanuts
+1/4 cup grated coconut
+1/2 cup finely chopped coriander (dhania)
+1 1/2 tsp dried mango powder (amchur)
+1 tsp finely chopped green chillies
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp finely chopped garlic (lehsun)
+1/2 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For peanut masala
+To make peanut masala in a bowl mix peanuts, coconut, coriander, amchur, green chillies, coriander cumin seeds powder, garlic, haldi, salt and mix well.
+Bhindi in peanut masala
+To make bhindi peanut masala recipe, heat the oil in a kadhai, add the asafoetida and sauté on a slow flame for 15 seconds.
+Add the ladies finger, mix well and cook on a medium flame for 4 to 5 minutes or till the ladies finger are soft, while stirring occasionally.
+Add the prepared peanut masala and salt, mix well and cook on a medium flame for another 2 minutes, while stirring occasionally.
+Serve bhindi peanut masala recipe hot.</t>
+  </si>
+  <si>
+    <t>Energy 167 cal
+Protein 4.5 g
+Carbohydrates 6.5 g
+Fiber 4.1 g
+Fat 14.2 g
+Cholesterol 0 mg
+Sodium 9.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bhindi-in-peanut-masala-38904r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42296</t>
+  </si>
+  <si>
+    <t>Quinoa Avocado Veg Healthy Office Salad</t>
+  </si>
+  <si>
+    <t>High Fiber Indian Salads</t>
+  </si>
+  <si>
+    <t>1/4 cup cooked quinoa
+1/2 cup riped avocado cubes
+1/2 cup chopped zucchini
+1/2 cup coloured capsicum cubes
+1/4 cup mushroom (khumbh) cubes
+1/4 cup cherry tomato halves
+1 cup iceberg lettuce , torn into pieces
+1 tbsp alfalfa sprouts
+1 tsp olive oil
+sea salt (khada namak) to taste
+To Be Mixed Into A Dressing
+1 tbsp olive oil
+1 tsp lemon juice
+1/4 tsp grated garlic (lehsun)
+sea salt (khada namak) to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat the olive oil in a griller pan or a broad non-stick pan, add the zucchini and sauté on a medium flame for 1 minute.
+Add the coloured capsicum and sauté on a medium flame for 1 minute.
+Add the mushroom and little sea salt and sauté on a medium flame for 1 minute.
+Cool put in a lunch box, along with other ingredients. It can be taken to work with a dressing in a separate small container.
+Just before eating, mix the dressing and toss well. Eat immediately.</t>
+  </si>
+  <si>
+    <t>Energy 459 cal
+Protein 7.7 g
+Carbohydrates 22 g
+Fiber 6.9 g
+Fat 38.9 g
+Cholesterol 0 mg
+Sodium 60.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/quinoa-avocado-veg-healthy-office-salad-42296r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5721</t>
+  </si>
+  <si>
+    <t>Lettuce and Bean Salad</t>
+  </si>
+  <si>
+    <t>For Lettuce and Bean Salad
+1 cup iceberg lettuce , torn into small pieces
+1 cup soaked and boiled rajma (kidney beans)
+1/2 cup soaked and boiled kabuli chana (white chick peas)
+1/2 cup chopped cucumber
+1/4 cup chopped spring onions whites
+1/4 cup finely chopped coriander (dhania)
+2 tbsp finely chopped mint leaves (phudina)
+1 tsp finely chopped green chillies
+1/4 cup cherry tomato halves
+1 tbsp lemon juice
+1/2 tsp sea salt (khada namak)</t>
+  </si>
+  <si>
+    <t>Method
+For lettuce and bean salad
+To make lettuce and bean salad, in a deep bowl put lettuce, rajma, kabuki chana, cucumber, spring onions, coriander, mint leaves, cherry tomatoes and green chillies.
+Cover with a cling wrap and chill in the fridge till you serve.
+Just before serving add lemon juice and sea salt.
+Toss well.
+Serve lettuce and bean salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 188 cal
+Protein 10.8 g
+Carbohydrates 32.1 g
+Fiber 9.2 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 36.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/lettuce-and-bean-salad-5721r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 33045</t>
+  </si>
+  <si>
+    <t>Bengali Khichdi, Bengali Khichuri</t>
+  </si>
+  <si>
+    <t>Weight Loss after Pregnancy</t>
+  </si>
+  <si>
+    <t>For Vegetables
+2 tsp ghee
+1/2 cup cauliflower florets
+1/4 cup fresh green peas
+1/4 cup chopped carrot
+1/4 cup chopped french beans
+Other Ingredients For Bengali Khichuri
+1/2 cup brown rice
+3/4 cup yellow moong dal (split yellow gram)
+1 tsp ghee
+1 clove (laung / lavang)
+1 small cinnamon (dalchini)
+1/4 cup chopped tomatoes
+2 tsp finely chopped green chillies
+1/2 tsp turmeric powder (haldi)
+1/4 tsp garam masala
+salt to taste
+For Serving With Bengali Khichuri
+fresh curd (dahi)</t>
+  </si>
+  <si>
+    <t>Method
+For bengali khichuri
+To make bengali khichuri, soak the brown rice in enough hot water for 1 hour. Drain and keep aside.
+Dry roast the yellow moong dal in a broad pan for 3 to 4 minutes, while stirring continuously. Remove in plate and keep aside.
+Heat 2 tsp ghee in a pressure cooker, add the cauliflower florets and saute on a medium flame for 2 minutes.
+Add the green peas, carrot and french beans and sauté on a medium flame for 2 minutes, remove the veggies in a plate and keep aside.
+In the same pressure cooker, add 1 tsp of the remaining ghee, add the clove, cinnamon and cardamom, sauté on a medium flame for few seconds.
+Add the tomatoes, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the green chillies, turmeric powder, garam masala and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the sauteéd vegetables, mix well and cook on a medium flame for seconds, while stirring occasionally.
+Add the roasted moong dal, soaked and drained brown rice and 3 cups of water.
+Mix well and pressure cook for 4 whistles.
+Allow the steam to escape before opening the lid.
+Serve bengali khichuri hot with fresh curd.</t>
+  </si>
+  <si>
+    <t>Energy 265 cal
+Protein 12.1 g
+Carbohydrates 42.9 g
+Fiber 5.8 g
+Fat 4.9 g
+Cholesterol 0 mg
+Sodium 21.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/bengali-khichdi-bengali-khichuri-33045r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42504</t>
+  </si>
+  <si>
+    <t>Healthy Broccoli Fried Rice Recipe</t>
+  </si>
+  <si>
+    <t>Vitamin E Rich Recipes for Eye Health and Vision</t>
+  </si>
+  <si>
+    <t>For Healthy Broccoli Fried Rice
+1 cup blanched broccoli florets
+2 cups cooked brown rice
+2 tsp oil
+2 tsp finely chopped garlic (lehsun)
+2 whole dry kashmiri red chillies , broken into pieces
+1/4 cup thinly sliced onions
+1 tsp finely chopped ginger (adrak)
+1 tsp finely chopped green chillies
+1/2 cup sliced coloured capsicum
+1 tsp soy sauce
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For healthy broccoli fried rice
+To make healthy broccoli fried rice, heat the oil in a broad non-stick pan, add the garlic and dry red chillies and sauté on a medium flame for 30 seconds.
+Add the onions, ginger and green chillies and sauté on a medium flame for 1 minute.
+Add the capsicum and sauté on a medium flame for 1 minute.
+Add the broccoli and sauté on a medium flam for 1 minute.
+Add the brown rice, soy sauce and salt, mix gently and cook on a medium flame for 2 minutes.
+Serve the healthy broccoli fried rice hot.</t>
+  </si>
+  <si>
+    <t>Energy 182 cal
+Protein 3.8 g
+Carbohydrates 31.8 g
+Fiber 2 g
+Fat 4.5 g
+Cholesterol 0 mg
+Sodium 118.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-broccoli-fried-rice-recipe-42504r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 39905</t>
+  </si>
+  <si>
+    <t>Cauliflower Oats Tikki, Healthy Mixed Vegetable Tikki</t>
+  </si>
+  <si>
+    <t>For Cauliflower Oats Tikki
+2 cups finely chopped and blanched cauliflower
+1/2 cup quick cooking rolled oats
+1/2 cup oats flour , refer handy tip
+3 1/4 tsp oil
+1/2 cup finely chopped onions
+1/2 cup finely chopped and boiled french beans
+1/2 cup finely chopped and boiled carrots
+1 tsp green chilli paste
+2 tbsp finely chopped coriander (dhania)
+2 tbsp finely chopped mint leaves (phudina)
+1 1/2 tsp garam masala
+1 1/2 tsp dried mango powder (amchur)
+1/2 tsp ginger (adrak) paste
+1/2 tsp chaat masala
+salt to taste
+For Serving With Cauliflower Oats Tikki
+healthy green chutney</t>
+  </si>
+  <si>
+    <t>Method
+For cauliflower oats tikki
+To make cauliflower oats tikki, heat 1 tsp of oil in a broad non-stick pan, add the onions and sauté on a medium flame for 2 minutes.
+Transfer the onions into a deep bowl, add the cauliflower, french beans and carrots, mix well and mash lightly using a potato masher.
+Add all the remaining ingredients, mix well and keep aside for 10 minutes. So the oats absorb all the flavours and binds well.
+Divide the mixture into 16 equal portions and shape each portion into a 50 mm. (2") flat round tikki.
+Heat the non-stick tava (griddle) and grease using ¼ tsp of oil.
+Cook each tikki on a slow flame using 1/8 tsp of oil, till they turn crisp and golden brown in colour from both the sides.
+Serve the cauliflower oats tikki immediately with healthy green chutney.
+Handy tip:
+To get ½ cup of oats flour, blend ½ cup of quick cooking rolled oats in a mixer to a smooth powder.</t>
+  </si>
+  <si>
+    <t>Energy 25 cal
+Protein 0.8 g
+Carbohydrates 2.7 g
+Fiber 0.8 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/cauliflower-oats-tikki-healthy-mixed-vegetable-tikki-39905r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42297</t>
+  </si>
+  <si>
+    <t>Rocket Leaves, Broccoli and Veg Work Healthy Salad</t>
+  </si>
+  <si>
+    <t>1 cup arugula leaves , put in cold and then dried
+1/2 cup blanched broccoli florets
+1 cup coloured capsicum cubes
+1/4 cup carrot juliennes
+1/4 cup cucumber strips
+1/2 cup zucchini strips
+1 tbsp alfalfa sprouts
+To Be Mixed Into A Dressing
+2 tsp olive oil
+1 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+It can be taken to work in a lunch box with a dressing in a separate small container.
+Just before eating, mix the dressing and toss well. Eat immediately.</t>
+  </si>
+  <si>
+    <t>Energy 163 cal
+Protein 4 g
+Carbohydrates 13.8 g
+Fiber 6.3 g
+Fat 10.8 g
+Cholesterol 0 mg
+Sodium 21.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rocket-leaves-broccoli-and-veg-work-healthy-salad-42297r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42254</t>
+  </si>
+  <si>
+    <t>Avocado Vegetable Salad, Avocado Capsicum Salad</t>
+  </si>
+  <si>
+    <t>For Avocado Vegetable Salad
+1/4 cup avocado cubes
+1/2 cup blanched broccoli florets
+1/2 cup colored capsicum cubes
+1/4 cup tomato cubes
+1/4 cup cucumber cubes
+1/2 cup iceberg lettuce , torn into pieces
+2 tsp roasted flaxseeds (alsi)
+To Be Mixed Into A Dressing
+1 tbsp olive oil
+1/2 tsp dried mixed herbs
+2 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For avocado vegetable salad
+To make avocado vegetable salad, combine all the ingredients for the salad in a bowl. It can be taken to work in a lunch box with the dressing in a separate small container.
+Just before serving, add the dressing and toss well. Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 302 cal
+Protein 4.9 g
+Carbohydrates 11.2 g
+Fiber 5.4 g
+Fat 26.9 g
+Cholesterol 0 mg
+Sodium 37 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-vegetable-salad-avocado-capsicum-salad-42254r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1459</t>
+  </si>
+  <si>
+    <t>Coco Peanut Soup</t>
+  </si>
+  <si>
+    <t>Healthy Indian Lunch Soups</t>
+  </si>
+  <si>
+    <t>1 1/2 cups coconut milk
+1/2 cup coarsely powdered peanuts
+2 tbsp besan (bengal gram flour)
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+2 tsp finely chopped green chillies
+1/4 cup finely chopped cucumber
+1/4 cup finely chopped tomatoes
+salt to taste
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the coconut milk and besan in a bowl, whisk well till no lumps remain and keep aside.
+Heat the oil in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add the green chillies and sauté on a medium flame for a few seconds.
+Add the coconut milk-besan mixture, mix well and cook on a medium flame for 3 to 4 minutes, while stirring continuously.
+Add the cucumber, tomatoes, peanuts, salt and ½ cup of water, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the coriander and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 287 cal
+Protein 6.2 g
+Carbohydrates 10.7 g
+Fiber 3 g
+Fat 24.9 g
+Cholesterol 0 mg
+Sodium 11.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/coco-peanut-soup-1459r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42190</t>
+  </si>
+  <si>
+    <t>Grilled Pumpkin, Healthy Grilled Kaddu, Bhopla,</t>
+  </si>
+  <si>
+    <t>Healthy Foods for Kids</t>
+  </si>
+  <si>
+    <t>For Grilled Pumpkin
+16 sliced red pumpkin (bhopla / kaddu)
+2 tsp olive oil
+2 tsp grated garlic (lehsun)
+1/2 tsp dried mixed herbs
+sea salt (khada namak)
+freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+For grilled pumpkin
+Make the dressing by mixing olive oil, grated garlic, mixed herbs, sea salt and pepper. Mix well.
+Rub in the dressing on both sides of the red pumpkin slices with your hands.
+Heat a griller pan or non stick pan, place the marinated red pumpkin slices on it.
+Cook on a medium flame for 2 minutes, turn them over and cook on a medium flame for 2 more minutes.
+Serve healthy grilled pumpkin (bhopla, kaddu) immediately.</t>
+  </si>
+  <si>
+    <t>Energy 10 cal
+Protein 0.2 g
+Carbohydrates 0.7 g
+Fiber 0.1 g
+Fat 0.6 g
+Cholesterol 0 mg
+Sodium 0.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/grilled-pumpkin-healthy-grilled-kaddu-bhopla-42190r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42201</t>
+  </si>
+  <si>
+    <t>Rajma Vegetable Salad, Healthy Indian Rajma Lunch Salad</t>
+  </si>
+  <si>
+    <t>For Rajma Vegetable Salad
+1/2 cup soaked and cooked rajma (kidney beans)
+1/2 cup coloured capsicum cubes
+1/2 cup baby spinach , torn into pieces
+1/2 cup rocket leaves (arugula) , torn into pieces
+1/4 cup carrot juliennes
+1/4 cup chopped spring onions
+4 cherry tomatoes , cut into halves
+2 tbsp alfalfa sprouts
+To Be Mixed Into A Dressing
+1 tbsp extra virgin olive oil
+1/4 tsp dry red chilli flakes (paprika)
+1/4 tsp dried oregano
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For rajma vegetable salad
+To make rajma vegetable salad, combine all the ingredients in a lunch box and mix well. Carry the dressing in a separate small container.
+Just before serving, add the dressing and toss well. Serve the rajma vegetable salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 272 cal
+Protein 8.3 g
+Carbohydrates 24.3 g
+Fiber 6 g
+Fat 15.9 g
+Cholesterol 0 mg
+Sodium 34.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-vegetable-salad-healthy-indian-rajma-lunch-salad-42201r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 42175</t>
+  </si>
+  <si>
+    <t>Roasted Pumpkin and Garlic</t>
+  </si>
+  <si>
+    <t>Low Calorie Quick Recipes</t>
+  </si>
+  <si>
+    <t>For Roasted Pumpkin and Garlic
+3 cups red pumpkin (bhopla / kaddu) cubes
+8 peeled garlic (lehsun) cloves
+2 tsp olive oil
+1/2 tsp sea salt (khada namak)
+freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+For roasted pumpkin and garlic
+To make roasted pumpkin and garlic, in a deep bowl put red pumpkin (bhopla / kaddu) cubes, peeled garlic (lehsun) cloves, olive oil, sea salt (khada namak), black pepper and toss well.
+Line a baking tray with parchment paper and put the marinated pumpkin evenly all over.
+Bake in a pre-heated oven at 180°c (360°f) for 15 minutes.
+Serve the roasted pumpkin and garlic immediately.</t>
+  </si>
+  <si>
+    <t>Energy 88 cal
+Protein 2.4 g
+Carbohydrates 7.8 g
+Fiber 1.2 g
+Fat 5.2 g
+Cholesterol 0 mg
+Sodium 9.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/roasted-pumpkin-and-garlic-42175r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 279</t>
+  </si>
+  <si>
+    <t>Mushroom Curry, Indian Mushroom Masala Curry</t>
+  </si>
+  <si>
+    <t>For Mushroom Curry
+2 cups blanched and thinly sliced mushrooms (khumbh)
+2 tbsp oil
+2 cardamoms (elaichi)
+2 bayleaves (tejpatta)
+3 cloves (laung / lavang)
+1/2 tsp garam masala
+1/2 tsp chilli powder
+1 tsp finely chopped ginger (adrak)
+1 tsp finely chopped green chillies
+3/4 cup beaten fresh curd (dahi)
+1/4 cup finely chopped coriander (dhania)
+salt to taste
+For The Paste
+1 cup roughly chopped onions
+6 garlic (lehsun) cloves
+12 mm piece ginger (adrak)
+2 tbsp broken cashew nut (kaju)</t>
+  </si>
+  <si>
+    <t>Method
+For the paste
+Combine the onions and 1 cup of water in a deep vessel and cook on a medium flame till the onions turn soft. Keep aside to cool slightly.
+Add the garlic, ginger and cashewnuts and blend in a mixer to a smooth paste. Keep aside.
+How to proceed
+To make mushroom curry, heat the oil in a kadhai, add the cardamom, bayleaves and cloves and sauté on a medium flame for a few seconds.
+Add the paste and sauté on a medium flame for 2 to 3 minutes.
+Add the garam masala, chilli powder, ginger and green chillies, mix well and cook on a medium flame for 1 minute.
+Lower the flame, add the curds and mix well. Cook on a slow flame for 1 minute, while stirring continuously.
+Add the mushrooms, coriander, 1/2 cup water, salt, mix well and cook on a medium flame for another 1 to 2 minutes.
+Serve the mushroom curry hot.</t>
+  </si>
+  <si>
+    <t>Energy 160 cal
+Protein 3.6 g
+Carbohydrates 8 g
+Fiber 0.7 g
+Fat 12 g
+Cholesterol 6 mg
+Sodium 11.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/mushroom-curry-indian-mushroom-masala-curry-279r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1441</t>
+  </si>
+  <si>
+    <t>Healthy Burger, Veg Burger, Burger with Whole Wheat Burger Buns</t>
+  </si>
+  <si>
+    <t>For The Cutlets
+1 1/2 tsp oil
+2 1/4 cups finely chopped mixed vegetables (carrots , french beans , cabbage and green peas)
+1/4 tsp turmeric powder (haldi)
+salt to taste
+1 tbsp whole wheat flour (gehun ka atta)
+1 tsp green chilli paste
+1 tbsp finely chopped coriander (dhania)
+1 tsp oil for greasing and cooking
+Other Ingredients
+3 whole wheat burger buns
+3 tbsp low calorie mayonnaise
+3 tsp tomato ketchup
+3 iceberg lettuce leaves
+3 sliced onions
+9 cucumber slices
+6 tomato slices
+salt for sprinkling</t>
+  </si>
+  <si>
+    <t>Method
+For the cutlets
+Heat the oil in a broad non-stick pan, add the mixed vegetables, turmeric powder and salt and mix well. Cover with a lid and cook on a slow flame for 4 to 5 minutes or till the vegetables are cooked, while stirring occasionally. Sprinkle a little water to avoid the vegetables from burning and sticki
+Add the whole wheat flour and green chilli paste, mix well and cook on a slow flame for another 1 to 2 minutes, while stirring occasionally.
+Remove from the flame and lightly mash it using a potato masher.
+Add the coriander and mix well. Keep aside to cool completely.
+Divide the mixture into 3 equal portions and shape each portion into a 100 mm. (4”) diameter round, flat cutlet.
+Heat a non-stick tava (griddle) and grease it with ¼ tsp of oil.
+Cook each cutlet using ¼ tsp of oil till they turn golden brown in colour from both the sides. Keep aside.
+How to proceed
+Cut each burger bun horizontally into two and toast them lightly on a tava (griddle) from both the sides.
+Place the lower half of the bun on a clean, dry surface, spread 1 tbsp of low-cal mayonnaise and 1 tsp of the tomato ketchup and place 1 iceberg lettuce over it.
+Place a cutlet, 1 onion slice, 3 cucumber slices and 2 tomato slices and sprinkle a little salt over it.
+Cover with an upper half of the bun and press it lightly.
+Repeat steps 2 to 4 to make 2 more burgers.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 314 cal
+Protein 9.8 g
+Carbohydrates 47.6 g
+Fiber 5.8 g
+Fat 9.5 g
+Cholesterol 0 mg
+Sodium 132.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/healthy-burger-veg-burger-burger-with-whole-wheat-burger-buns-1441r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 41218</t>
+  </si>
+  <si>
+    <t>Spicy Broccoli Subzi</t>
+  </si>
+  <si>
+    <t>Healthy Dinner Weight Loss</t>
+  </si>
+  <si>
+    <t>3 cups broccoli florets
+2 tbsp roasted chana dal (daria)
+2 tbsp urad dal (split black lentils)
+2 tsp cumin seeds (jeera)
+1 bayleaf (tejpatta)
+1/2 cup finely chopped onions
+salt to taste
+3/4 tsp chilli powder
+1/2 tsp garam masala</t>
+  </si>
+  <si>
+    <t>Method
+Combine the roasted chana dal, urad dal and 1 tsp of cumin seeds in a small non-stick pan and dry roast on a medium flame for 4 to 5 minutes.
+Cool and blend in a mixer along with 1 cup of water till smooth. Keep aside.
+Heat a deep non-stick pan on a medium flame and when it is hot, add the remaining 1 tsp of cumin seeds and bayleaf and dry roast on a medium flame for 30 seconds.
+Add the onions and dry roast on a medium flame for 2 to 3 minutes.
+Add the broccoli and salt, mix well and cook on a medium flame for 2 minutes.
+Add ½ cup of water, cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
+Add the chilli powder, garam masala and ½ cup of water, mix well and cook on a medium flame for 1 minute.
+Add the roasted chana dal-ural dal mixture and 1½ cups of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 45 cal
+Protein 3.3 g
+Carbohydrates 8 g
+Fiber 1.6 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 11.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spicy-broccoli-subzi-41218r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 760</t>
+  </si>
+  <si>
+    <t>Rajma, Bean Sprouts and Spring Onion Salad</t>
+  </si>
+  <si>
+    <t>Potassium Rich</t>
+  </si>
+  <si>
+    <t>1 cup soaked and cooked rajma (kidney beans)
+3/4 cup bean sprouts
+1/2 cup chopped spring onion whites and greens
+3/4 cup finely chopped tomatoes
+2 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and toss well.
+Refrigerate for atleast 1 hour and serve chilled.</t>
+  </si>
+  <si>
+    <t>Energy 57 cal
+Protein 3.6 g
+Carbohydrates 10.2 g
+Fiber 1.6 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 5.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/rajma-bean-sprouts-and-spring-onion-salad-760r</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1369</t>
+  </si>
+  <si>
+    <t>Spinach and Vegetable Delight</t>
+  </si>
+  <si>
+    <t>Cancer Lunch</t>
+  </si>
+  <si>
+    <t>2 tbsp soaked and boiled chana dal (split bengal gram)
+2 tsp oil
+1/4 cup chopped onions
+1/2 cup chopped and boiled mixed vegetables (French beans, carrots, cauliflower, green peas)
+1/4 cup chopped tomatoes
+25 ginger (adrak) , finely chopped
+1/4 tsp green chilli paste
+1/2 tsp turmeric powder (haldi)
+1 tsp coriander (dhania) powder
+1/2 tsp chilli powder
+salt to taste
+2 cups chopped spinach (palak)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a non-stick pan, add the onions and sauté on a medium flame for 2 to 3 minutes.
+Add the mixed vegetables and tomatoes and sauté on a medium flame for 2 to 3 minutes.
+Add the ginger, green chilli paste, turmeric powder, coriander powder and chilli powder and salt and mix well.
+Add the boiled dal, mix well and cook for 2 minutes.
+Add the spinach and ¼ cup of water and cook for 4 to 5 minutes, while stirring continuously.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 73 cal
+Protein 2.9 g
+Carbohydrates 8.1 g
+Fiber 3 g
+Fat 3.2 g
+Cholesterol 0 mg
+Sodium 30.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/spinach-and-vegetable-delight-1369r</t>
+  </si>
+  <si>
+    <t>No of Recipes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3807,19 +4614,345 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:QE11"/>
+  <dimension ref="A1:QE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:EQ11"/>
+      <selection activeCell="HY1" sqref="HY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.42578125"/>
-    <col min="2" max="2" customWidth="true" width="9.140625"/>
-    <col min="377" max="377" customWidth="true" width="20.28515625"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="377" max="377" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:447" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>653</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="M1">
+        <v>6</v>
+      </c>
+      <c r="O1">
+        <v>7</v>
+      </c>
+      <c r="Q1">
+        <v>8</v>
+      </c>
+      <c r="S1">
+        <v>9</v>
+      </c>
+      <c r="U1">
+        <v>10</v>
+      </c>
+      <c r="W1">
+        <v>11</v>
+      </c>
+      <c r="Y1">
+        <v>12</v>
+      </c>
+      <c r="AA1">
+        <v>13</v>
+      </c>
+      <c r="AC1">
+        <v>14</v>
+      </c>
+      <c r="AE1">
+        <v>15</v>
+      </c>
+      <c r="AG1">
+        <v>16</v>
+      </c>
+      <c r="AI1">
+        <v>17</v>
+      </c>
+      <c r="AK1">
+        <v>18</v>
+      </c>
+      <c r="AM1">
+        <v>19</v>
+      </c>
+      <c r="AO1">
+        <v>20</v>
+      </c>
+      <c r="AQ1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AU1">
+        <v>23</v>
+      </c>
+      <c r="AW1">
+        <v>24</v>
+      </c>
+      <c r="AY1">
+        <v>25</v>
+      </c>
+      <c r="BA1">
+        <v>26</v>
+      </c>
+      <c r="BC1">
+        <v>27</v>
+      </c>
+      <c r="BE1">
+        <v>28</v>
+      </c>
+      <c r="BG1">
+        <v>29</v>
+      </c>
+      <c r="BI1">
+        <v>30</v>
+      </c>
+      <c r="BK1">
+        <v>31</v>
+      </c>
+      <c r="BM1">
+        <v>32</v>
+      </c>
+      <c r="BO1">
+        <v>33</v>
+      </c>
+      <c r="BQ1">
+        <v>34</v>
+      </c>
+      <c r="BS1">
+        <v>35</v>
+      </c>
+      <c r="BU1">
+        <v>36</v>
+      </c>
+      <c r="BW1">
+        <v>37</v>
+      </c>
+      <c r="BY1">
+        <v>38</v>
+      </c>
+      <c r="CA1">
+        <v>39</v>
+      </c>
+      <c r="CC1">
+        <v>40</v>
+      </c>
+      <c r="CE1">
+        <v>41</v>
+      </c>
+      <c r="CG1">
+        <v>42</v>
+      </c>
+      <c r="CI1">
+        <v>43</v>
+      </c>
+      <c r="CK1">
+        <v>44</v>
+      </c>
+      <c r="CM1">
+        <v>45</v>
+      </c>
+      <c r="CO1">
+        <v>46</v>
+      </c>
+      <c r="CQ1">
+        <v>47</v>
+      </c>
+      <c r="CS1">
+        <v>48</v>
+      </c>
+      <c r="CU1">
+        <v>49</v>
+      </c>
+      <c r="CW1">
+        <v>50</v>
+      </c>
+      <c r="CY1">
+        <v>51</v>
+      </c>
+      <c r="DA1">
+        <v>52</v>
+      </c>
+      <c r="DC1">
+        <v>53</v>
+      </c>
+      <c r="DE1">
+        <v>54</v>
+      </c>
+      <c r="DG1">
+        <v>55</v>
+      </c>
+      <c r="DI1">
+        <v>56</v>
+      </c>
+      <c r="DK1">
+        <v>57</v>
+      </c>
+      <c r="DM1">
+        <v>58</v>
+      </c>
+      <c r="DO1">
+        <v>59</v>
+      </c>
+      <c r="DQ1">
+        <v>60</v>
+      </c>
+      <c r="DS1">
+        <v>61</v>
+      </c>
+      <c r="DU1">
+        <v>62</v>
+      </c>
+      <c r="DW1">
+        <v>63</v>
+      </c>
+      <c r="DY1">
+        <v>64</v>
+      </c>
+      <c r="EA1">
+        <v>65</v>
+      </c>
+      <c r="EC1">
+        <v>66</v>
+      </c>
+      <c r="EE1">
+        <v>67</v>
+      </c>
+      <c r="EG1">
+        <v>68</v>
+      </c>
+      <c r="EI1">
+        <v>69</v>
+      </c>
+      <c r="EK1">
+        <v>70</v>
+      </c>
+      <c r="EM1">
+        <v>71</v>
+      </c>
+      <c r="EO1">
+        <v>72</v>
+      </c>
+      <c r="EQ1">
+        <v>73</v>
+      </c>
+      <c r="ES1">
+        <v>74</v>
+      </c>
+      <c r="EU1">
+        <v>75</v>
+      </c>
+      <c r="EW1">
+        <v>76</v>
+      </c>
+      <c r="EY1">
+        <v>77</v>
+      </c>
+      <c r="FA1">
+        <v>78</v>
+      </c>
+      <c r="FC1">
+        <v>79</v>
+      </c>
+      <c r="FE1">
+        <v>80</v>
+      </c>
+      <c r="FG1">
+        <v>81</v>
+      </c>
+      <c r="FI1">
+        <v>82</v>
+      </c>
+      <c r="FK1">
+        <v>83</v>
+      </c>
+      <c r="FM1">
+        <v>84</v>
+      </c>
+      <c r="FO1">
+        <v>85</v>
+      </c>
+      <c r="FQ1">
+        <v>86</v>
+      </c>
+      <c r="FS1">
+        <v>87</v>
+      </c>
+      <c r="FU1">
+        <v>88</v>
+      </c>
+      <c r="FW1">
+        <v>89</v>
+      </c>
+      <c r="FY1">
+        <v>90</v>
+      </c>
+      <c r="GA1">
+        <v>91</v>
+      </c>
+      <c r="GC1">
+        <v>92</v>
+      </c>
+      <c r="GE1">
+        <v>93</v>
+      </c>
+      <c r="GG1">
+        <v>94</v>
+      </c>
+      <c r="GI1">
+        <v>95</v>
+      </c>
+      <c r="GK1">
+        <v>96</v>
+      </c>
+      <c r="GM1">
+        <v>97</v>
+      </c>
+      <c r="GO1">
+        <v>98</v>
+      </c>
+      <c r="GQ1">
+        <v>99</v>
+      </c>
+      <c r="GS1">
+        <v>100</v>
+      </c>
+      <c r="GU1">
+        <v>101</v>
+      </c>
+      <c r="GW1">
+        <v>102</v>
+      </c>
+      <c r="GY1">
+        <v>103</v>
+      </c>
+      <c r="HA1">
+        <v>104</v>
+      </c>
+      <c r="HC1">
+        <v>105</v>
+      </c>
+      <c r="HE1">
+        <v>106</v>
+      </c>
+      <c r="HG1">
+        <v>107</v>
+      </c>
+    </row>
     <row r="2" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -4044,6 +5177,105 @@
         <v>519</v>
       </c>
       <c r="ES2" t="s">
+        <v>528</v>
+      </c>
+      <c r="EU2" t="s">
+        <v>534</v>
+      </c>
+      <c r="EW2" t="s">
+        <v>541</v>
+      </c>
+      <c r="EY2" t="s">
+        <v>548</v>
+      </c>
+      <c r="FA2" t="s">
+        <v>555</v>
+      </c>
+      <c r="FC2" t="s">
+        <v>561</v>
+      </c>
+      <c r="FE2" t="s">
+        <v>568</v>
+      </c>
+      <c r="FG2" t="s">
+        <v>146</v>
+      </c>
+      <c r="FI2" t="s">
+        <v>575</v>
+      </c>
+      <c r="FK2" t="s">
+        <v>180</v>
+      </c>
+      <c r="FM2" t="s">
+        <v>208</v>
+      </c>
+      <c r="FO2" t="s">
+        <v>581</v>
+      </c>
+      <c r="FQ2" t="s">
+        <v>230</v>
+      </c>
+      <c r="FS2" t="s">
+        <v>587</v>
+      </c>
+      <c r="FU2" t="s">
+        <v>237</v>
+      </c>
+      <c r="FW2" t="s">
+        <v>593</v>
+      </c>
+      <c r="FY2" t="s">
+        <v>600</v>
+      </c>
+      <c r="GA2" t="s">
+        <v>607</v>
+      </c>
+      <c r="GC2" t="s">
+        <v>613</v>
+      </c>
+      <c r="GE2" t="s">
+        <v>620</v>
+      </c>
+      <c r="GG2" t="s">
+        <v>245</v>
+      </c>
+      <c r="GI2" t="s">
+        <v>626</v>
+      </c>
+      <c r="GK2" t="s">
+        <v>274</v>
+      </c>
+      <c r="GM2" t="s">
+        <v>281</v>
+      </c>
+      <c r="GO2" t="s">
+        <v>288</v>
+      </c>
+      <c r="GQ2" t="s">
+        <v>314</v>
+      </c>
+      <c r="GS2" t="s">
+        <v>632</v>
+      </c>
+      <c r="GU2" t="s">
+        <v>639</v>
+      </c>
+      <c r="GW2" t="s">
+        <v>334</v>
+      </c>
+      <c r="GY2" t="s">
+        <v>341</v>
+      </c>
+      <c r="HA2" t="s">
+        <v>398</v>
+      </c>
+      <c r="HC2" t="s">
+        <v>438</v>
+      </c>
+      <c r="HE2" t="s">
+        <v>646</v>
+      </c>
+      <c r="HG2" t="s">
         <v>528</v>
       </c>
     </row>
@@ -4273,6 +5505,105 @@
       <c r="ES3" t="s">
         <v>529</v>
       </c>
+      <c r="EU3" t="s">
+        <v>535</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>542</v>
+      </c>
+      <c r="EY3" t="s">
+        <v>549</v>
+      </c>
+      <c r="FA3" t="s">
+        <v>556</v>
+      </c>
+      <c r="FC3" t="s">
+        <v>562</v>
+      </c>
+      <c r="FE3" t="s">
+        <v>569</v>
+      </c>
+      <c r="FG3" t="s">
+        <v>147</v>
+      </c>
+      <c r="FI3" t="s">
+        <v>576</v>
+      </c>
+      <c r="FK3" t="s">
+        <v>181</v>
+      </c>
+      <c r="FM3" t="s">
+        <v>209</v>
+      </c>
+      <c r="FO3" t="s">
+        <v>582</v>
+      </c>
+      <c r="FQ3" t="s">
+        <v>231</v>
+      </c>
+      <c r="FS3" t="s">
+        <v>588</v>
+      </c>
+      <c r="FU3" t="s">
+        <v>238</v>
+      </c>
+      <c r="FW3" t="s">
+        <v>594</v>
+      </c>
+      <c r="FY3" t="s">
+        <v>601</v>
+      </c>
+      <c r="GA3" t="s">
+        <v>608</v>
+      </c>
+      <c r="GC3" t="s">
+        <v>614</v>
+      </c>
+      <c r="GE3" t="s">
+        <v>621</v>
+      </c>
+      <c r="GG3" t="s">
+        <v>246</v>
+      </c>
+      <c r="GI3" t="s">
+        <v>627</v>
+      </c>
+      <c r="GK3" t="s">
+        <v>275</v>
+      </c>
+      <c r="GM3" t="s">
+        <v>282</v>
+      </c>
+      <c r="GO3" t="s">
+        <v>289</v>
+      </c>
+      <c r="GQ3" t="s">
+        <v>315</v>
+      </c>
+      <c r="GS3" t="s">
+        <v>633</v>
+      </c>
+      <c r="GU3" t="s">
+        <v>640</v>
+      </c>
+      <c r="GW3" t="s">
+        <v>335</v>
+      </c>
+      <c r="GY3" t="s">
+        <v>342</v>
+      </c>
+      <c r="HA3" t="s">
+        <v>399</v>
+      </c>
+      <c r="HC3" t="s">
+        <v>439</v>
+      </c>
+      <c r="HE3" t="s">
+        <v>647</v>
+      </c>
+      <c r="HG3" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="4" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4500,6 +5831,105 @@
       <c r="ES4" t="s">
         <v>336</v>
       </c>
+      <c r="EU4" t="s">
+        <v>536</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>543</v>
+      </c>
+      <c r="EY4" t="s">
+        <v>550</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>125</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>563</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>570</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>141</v>
+      </c>
+      <c r="FI4" t="s">
+        <v>283</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>182</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>210</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>182</v>
+      </c>
+      <c r="FQ4" t="s">
+        <v>232</v>
+      </c>
+      <c r="FS4" t="s">
+        <v>133</v>
+      </c>
+      <c r="FU4" t="s">
+        <v>239</v>
+      </c>
+      <c r="FW4" t="s">
+        <v>595</v>
+      </c>
+      <c r="FY4" t="s">
+        <v>602</v>
+      </c>
+      <c r="GA4" t="s">
+        <v>393</v>
+      </c>
+      <c r="GC4" t="s">
+        <v>615</v>
+      </c>
+      <c r="GE4" t="s">
+        <v>40</v>
+      </c>
+      <c r="GG4" t="s">
+        <v>247</v>
+      </c>
+      <c r="GI4" t="s">
+        <v>116</v>
+      </c>
+      <c r="GK4" t="s">
+        <v>247</v>
+      </c>
+      <c r="GM4" t="s">
+        <v>283</v>
+      </c>
+      <c r="GO4" t="s">
+        <v>290</v>
+      </c>
+      <c r="GQ4" t="s">
+        <v>316</v>
+      </c>
+      <c r="GS4" t="s">
+        <v>634</v>
+      </c>
+      <c r="GU4" t="s">
+        <v>641</v>
+      </c>
+      <c r="GW4" t="s">
+        <v>336</v>
+      </c>
+      <c r="GY4" t="s">
+        <v>343</v>
+      </c>
+      <c r="HA4" t="s">
+        <v>225</v>
+      </c>
+      <c r="HC4" t="s">
+        <v>440</v>
+      </c>
+      <c r="HE4" t="s">
+        <v>648</v>
+      </c>
+      <c r="HG4" t="s">
+        <v>336</v>
+      </c>
     </row>
     <row r="5" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -4727,6 +6157,105 @@
       <c r="ES5" t="s">
         <v>530</v>
       </c>
+      <c r="EU5" t="s">
+        <v>537</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>544</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>551</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>557</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>564</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>571</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>148</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>577</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>183</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>211</v>
+      </c>
+      <c r="FO5" t="s">
+        <v>583</v>
+      </c>
+      <c r="FQ5" t="s">
+        <v>233</v>
+      </c>
+      <c r="FS5" t="s">
+        <v>589</v>
+      </c>
+      <c r="FU5" t="s">
+        <v>240</v>
+      </c>
+      <c r="FW5" t="s">
+        <v>596</v>
+      </c>
+      <c r="FY5" t="s">
+        <v>603</v>
+      </c>
+      <c r="GA5" t="s">
+        <v>609</v>
+      </c>
+      <c r="GC5" t="s">
+        <v>616</v>
+      </c>
+      <c r="GE5" t="s">
+        <v>622</v>
+      </c>
+      <c r="GG5" t="s">
+        <v>248</v>
+      </c>
+      <c r="GI5" t="s">
+        <v>628</v>
+      </c>
+      <c r="GK5" t="s">
+        <v>276</v>
+      </c>
+      <c r="GM5" t="s">
+        <v>284</v>
+      </c>
+      <c r="GO5" t="s">
+        <v>291</v>
+      </c>
+      <c r="GQ5" t="s">
+        <v>317</v>
+      </c>
+      <c r="GS5" t="s">
+        <v>635</v>
+      </c>
+      <c r="GU5" t="s">
+        <v>642</v>
+      </c>
+      <c r="GW5" t="s">
+        <v>337</v>
+      </c>
+      <c r="GY5" t="s">
+        <v>344</v>
+      </c>
+      <c r="HA5" t="s">
+        <v>400</v>
+      </c>
+      <c r="HC5" t="s">
+        <v>441</v>
+      </c>
+      <c r="HE5" t="s">
+        <v>649</v>
+      </c>
+      <c r="HG5" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="6" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -4954,6 +6483,105 @@
       <c r="ES6" t="s">
         <v>59</v>
       </c>
+      <c r="EU6" t="s">
+        <v>59</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>33</v>
+      </c>
+      <c r="EY6" t="s">
+        <v>33</v>
+      </c>
+      <c r="FA6" t="s">
+        <v>24</v>
+      </c>
+      <c r="FC6" t="s">
+        <v>24</v>
+      </c>
+      <c r="FE6" t="s">
+        <v>14</v>
+      </c>
+      <c r="FG6" t="s">
+        <v>24</v>
+      </c>
+      <c r="FI6" t="s">
+        <v>24</v>
+      </c>
+      <c r="FK6" t="s">
+        <v>33</v>
+      </c>
+      <c r="FM6" t="s">
+        <v>33</v>
+      </c>
+      <c r="FO6" t="s">
+        <v>33</v>
+      </c>
+      <c r="FQ6" t="s">
+        <v>33</v>
+      </c>
+      <c r="FS6" t="s">
+        <v>59</v>
+      </c>
+      <c r="FU6" t="s">
+        <v>59</v>
+      </c>
+      <c r="FW6" t="s">
+        <v>59</v>
+      </c>
+      <c r="FY6" t="s">
+        <v>14</v>
+      </c>
+      <c r="GA6" t="s">
+        <v>33</v>
+      </c>
+      <c r="GC6" t="s">
+        <v>59</v>
+      </c>
+      <c r="GE6" t="s">
+        <v>59</v>
+      </c>
+      <c r="GG6" t="s">
+        <v>33</v>
+      </c>
+      <c r="GI6" t="s">
+        <v>15</v>
+      </c>
+      <c r="GK6" t="s">
+        <v>33</v>
+      </c>
+      <c r="GM6" t="s">
+        <v>59</v>
+      </c>
+      <c r="GO6" t="s">
+        <v>15</v>
+      </c>
+      <c r="GQ6" t="s">
+        <v>24</v>
+      </c>
+      <c r="GS6" t="s">
+        <v>33</v>
+      </c>
+      <c r="GU6" t="s">
+        <v>24</v>
+      </c>
+      <c r="GW6" t="s">
+        <v>24</v>
+      </c>
+      <c r="GY6" t="s">
+        <v>59</v>
+      </c>
+      <c r="HA6" t="s">
+        <v>59</v>
+      </c>
+      <c r="HC6" t="s">
+        <v>33</v>
+      </c>
+      <c r="HE6" t="s">
+        <v>59</v>
+      </c>
+      <c r="HG6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -5181,6 +6809,105 @@
       <c r="ES7" t="s">
         <v>33</v>
       </c>
+      <c r="EU7" t="s">
+        <v>277</v>
+      </c>
+      <c r="EW7" t="s">
+        <v>135</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>43</v>
+      </c>
+      <c r="FA7" t="s">
+        <v>103</v>
+      </c>
+      <c r="FC7" t="s">
+        <v>127</v>
+      </c>
+      <c r="FE7" t="s">
+        <v>60</v>
+      </c>
+      <c r="FG7" t="s">
+        <v>135</v>
+      </c>
+      <c r="FI7" t="s">
+        <v>33</v>
+      </c>
+      <c r="FK7" t="s">
+        <v>103</v>
+      </c>
+      <c r="FM7" t="s">
+        <v>212</v>
+      </c>
+      <c r="FO7" t="s">
+        <v>103</v>
+      </c>
+      <c r="FQ7" t="s">
+        <v>59</v>
+      </c>
+      <c r="FS7" t="s">
+        <v>103</v>
+      </c>
+      <c r="FU7" t="s">
+        <v>241</v>
+      </c>
+      <c r="FW7" t="s">
+        <v>135</v>
+      </c>
+      <c r="FY7" t="s">
+        <v>365</v>
+      </c>
+      <c r="GA7" t="s">
+        <v>103</v>
+      </c>
+      <c r="GC7" t="s">
+        <v>103</v>
+      </c>
+      <c r="GE7" t="s">
+        <v>59</v>
+      </c>
+      <c r="GG7" t="s">
+        <v>59</v>
+      </c>
+      <c r="GI7" t="s">
+        <v>59</v>
+      </c>
+      <c r="GK7" t="s">
+        <v>277</v>
+      </c>
+      <c r="GM7" t="s">
+        <v>24</v>
+      </c>
+      <c r="GO7" t="s">
+        <v>34</v>
+      </c>
+      <c r="GQ7" t="s">
+        <v>277</v>
+      </c>
+      <c r="GS7" t="s">
+        <v>15</v>
+      </c>
+      <c r="GU7" t="s">
+        <v>103</v>
+      </c>
+      <c r="GW7" t="s">
+        <v>60</v>
+      </c>
+      <c r="GY7" t="s">
+        <v>345</v>
+      </c>
+      <c r="HA7" t="s">
+        <v>401</v>
+      </c>
+      <c r="HC7" t="s">
+        <v>43</v>
+      </c>
+      <c r="HE7" t="s">
+        <v>59</v>
+      </c>
+      <c r="HG7" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -5408,6 +7135,105 @@
       <c r="ES8" t="s">
         <v>531</v>
       </c>
+      <c r="EU8" t="s">
+        <v>538</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>545</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>552</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>558</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>565</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>572</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>149</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>578</v>
+      </c>
+      <c r="FK8" t="s">
+        <v>184</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>213</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>584</v>
+      </c>
+      <c r="FQ8" t="s">
+        <v>234</v>
+      </c>
+      <c r="FS8" t="s">
+        <v>590</v>
+      </c>
+      <c r="FU8" t="s">
+        <v>242</v>
+      </c>
+      <c r="FW8" t="s">
+        <v>597</v>
+      </c>
+      <c r="FY8" t="s">
+        <v>604</v>
+      </c>
+      <c r="GA8" t="s">
+        <v>610</v>
+      </c>
+      <c r="GC8" t="s">
+        <v>617</v>
+      </c>
+      <c r="GE8" t="s">
+        <v>623</v>
+      </c>
+      <c r="GG8" t="s">
+        <v>249</v>
+      </c>
+      <c r="GI8" t="s">
+        <v>629</v>
+      </c>
+      <c r="GK8" t="s">
+        <v>278</v>
+      </c>
+      <c r="GM8" t="s">
+        <v>285</v>
+      </c>
+      <c r="GO8" t="s">
+        <v>292</v>
+      </c>
+      <c r="GQ8" t="s">
+        <v>318</v>
+      </c>
+      <c r="GS8" t="s">
+        <v>636</v>
+      </c>
+      <c r="GU8" t="s">
+        <v>643</v>
+      </c>
+      <c r="GW8" t="s">
+        <v>338</v>
+      </c>
+      <c r="GY8" t="s">
+        <v>346</v>
+      </c>
+      <c r="HA8" t="s">
+        <v>402</v>
+      </c>
+      <c r="HC8" t="s">
+        <v>442</v>
+      </c>
+      <c r="HE8" t="s">
+        <v>650</v>
+      </c>
+      <c r="HG8" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="9" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -5635,6 +7461,105 @@
       <c r="ES9" t="s">
         <v>532</v>
       </c>
+      <c r="EU9" t="s">
+        <v>539</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>546</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>553</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>559</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>566</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>573</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>150</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>579</v>
+      </c>
+      <c r="FK9" t="s">
+        <v>185</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>214</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>585</v>
+      </c>
+      <c r="FQ9" t="s">
+        <v>235</v>
+      </c>
+      <c r="FS9" t="s">
+        <v>591</v>
+      </c>
+      <c r="FU9" t="s">
+        <v>243</v>
+      </c>
+      <c r="FW9" t="s">
+        <v>598</v>
+      </c>
+      <c r="FY9" t="s">
+        <v>605</v>
+      </c>
+      <c r="GA9" t="s">
+        <v>611</v>
+      </c>
+      <c r="GC9" t="s">
+        <v>618</v>
+      </c>
+      <c r="GE9" t="s">
+        <v>624</v>
+      </c>
+      <c r="GG9" t="s">
+        <v>250</v>
+      </c>
+      <c r="GI9" t="s">
+        <v>630</v>
+      </c>
+      <c r="GK9" t="s">
+        <v>279</v>
+      </c>
+      <c r="GM9" t="s">
+        <v>286</v>
+      </c>
+      <c r="GO9" t="s">
+        <v>293</v>
+      </c>
+      <c r="GQ9" t="s">
+        <v>319</v>
+      </c>
+      <c r="GS9" t="s">
+        <v>637</v>
+      </c>
+      <c r="GU9" t="s">
+        <v>644</v>
+      </c>
+      <c r="GW9" t="s">
+        <v>339</v>
+      </c>
+      <c r="GY9" t="s">
+        <v>347</v>
+      </c>
+      <c r="HA9" t="s">
+        <v>403</v>
+      </c>
+      <c r="HC9" t="s">
+        <v>443</v>
+      </c>
+      <c r="HE9" t="s">
+        <v>651</v>
+      </c>
+      <c r="HG9" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="10" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -5862,39 +7787,105 @@
       <c r="ES10" t="s">
         <v>18</v>
       </c>
-      <c r="EU10" s="1"/>
-      <c r="EW10" s="1"/>
-      <c r="EY10" s="1"/>
-      <c r="FA10" s="1"/>
-      <c r="FC10" s="1"/>
-      <c r="FE10" s="1"/>
-      <c r="FG10" s="1"/>
-      <c r="FI10" s="1"/>
-      <c r="FK10" s="1"/>
-      <c r="FM10" s="1"/>
-      <c r="FO10" s="1"/>
-      <c r="FQ10" s="1"/>
-      <c r="FS10" s="1"/>
-      <c r="FU10" s="1"/>
-      <c r="FW10" s="1"/>
-      <c r="FY10" s="1"/>
-      <c r="GA10" s="1"/>
-      <c r="GC10" s="1"/>
-      <c r="GE10" s="1"/>
-      <c r="GG10" s="1"/>
-      <c r="GI10" s="1"/>
-      <c r="GK10" s="1"/>
-      <c r="GM10" s="1"/>
-      <c r="GO10" s="1"/>
-      <c r="GQ10" s="1"/>
-      <c r="GS10" s="1"/>
-      <c r="GU10" s="1"/>
-      <c r="GW10" s="1"/>
-      <c r="GY10" s="1"/>
-      <c r="HA10" s="1"/>
-      <c r="HC10" s="1"/>
-      <c r="HE10" s="1"/>
-      <c r="HG10" s="1"/>
+      <c r="EU10" t="s">
+        <v>18</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>18</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FA10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FG10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FO10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FQ10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FS10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FU10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FW10" t="s">
+        <v>18</v>
+      </c>
+      <c r="FY10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GA10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GG10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GI10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GK10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GM10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GO10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GQ10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GS10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GU10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GW10" t="s">
+        <v>18</v>
+      </c>
+      <c r="GY10" t="s">
+        <v>18</v>
+      </c>
+      <c r="HA10" t="s">
+        <v>18</v>
+      </c>
+      <c r="HC10" t="s">
+        <v>18</v>
+      </c>
+      <c r="HE10" t="s">
+        <v>18</v>
+      </c>
+      <c r="HG10" t="s">
+        <v>18</v>
+      </c>
       <c r="HI10" s="1"/>
       <c r="HK10" s="1"/>
       <c r="HM10" s="1"/>
@@ -6238,6 +8229,105 @@
       <c r="ES11" t="s">
         <v>533</v>
       </c>
+      <c r="EU11" t="s">
+        <v>540</v>
+      </c>
+      <c r="EW11" t="s">
+        <v>547</v>
+      </c>
+      <c r="EY11" t="s">
+        <v>554</v>
+      </c>
+      <c r="FA11" t="s">
+        <v>560</v>
+      </c>
+      <c r="FC11" t="s">
+        <v>567</v>
+      </c>
+      <c r="FE11" t="s">
+        <v>574</v>
+      </c>
+      <c r="FG11" t="s">
+        <v>151</v>
+      </c>
+      <c r="FI11" t="s">
+        <v>580</v>
+      </c>
+      <c r="FK11" t="s">
+        <v>186</v>
+      </c>
+      <c r="FM11" t="s">
+        <v>215</v>
+      </c>
+      <c r="FO11" t="s">
+        <v>586</v>
+      </c>
+      <c r="FQ11" t="s">
+        <v>236</v>
+      </c>
+      <c r="FS11" t="s">
+        <v>592</v>
+      </c>
+      <c r="FU11" t="s">
+        <v>244</v>
+      </c>
+      <c r="FW11" t="s">
+        <v>599</v>
+      </c>
+      <c r="FY11" t="s">
+        <v>606</v>
+      </c>
+      <c r="GA11" t="s">
+        <v>612</v>
+      </c>
+      <c r="GC11" t="s">
+        <v>619</v>
+      </c>
+      <c r="GE11" t="s">
+        <v>625</v>
+      </c>
+      <c r="GG11" t="s">
+        <v>251</v>
+      </c>
+      <c r="GI11" t="s">
+        <v>631</v>
+      </c>
+      <c r="GK11" t="s">
+        <v>280</v>
+      </c>
+      <c r="GM11" t="s">
+        <v>287</v>
+      </c>
+      <c r="GO11" t="s">
+        <v>294</v>
+      </c>
+      <c r="GQ11" t="s">
+        <v>320</v>
+      </c>
+      <c r="GS11" t="s">
+        <v>638</v>
+      </c>
+      <c r="GU11" t="s">
+        <v>645</v>
+      </c>
+      <c r="GW11" t="s">
+        <v>340</v>
+      </c>
+      <c r="GY11" t="s">
+        <v>348</v>
+      </c>
+      <c r="HA11" t="s">
+        <v>404</v>
+      </c>
+      <c r="HC11" t="s">
+        <v>444</v>
+      </c>
+      <c r="HE11" t="s">
+        <v>652</v>
+      </c>
+      <c r="HG11" t="s">
+        <v>533</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForDiabetes.xlsx
+++ b/Team02_NinjaScrapers_2023/src/test/resources/ScrapedRecipesForDiabetes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\git\RecipeScrapingHackathon2023\Team02_NinjaScrapers_2023\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAD69FD-1228-4424-A612-AFADDBBDCD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF7CAF3-32B2-43E3-973D-C741E4E0A519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="535">
   <si>
     <t>Recipe ID</t>
   </si>
@@ -3490,807 +3490,6 @@
   </si>
   <si>
     <t>https://www.tarladalal.com/pyaz-ki-roti-healthy-pyaz-ka-paratha-5581r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33302</t>
-  </si>
-  <si>
-    <t>Buckwheat Khichdi, Farali Kutto Khichdi Recipe, Vrat Recipe, Fasting Recipe</t>
-  </si>
-  <si>
-    <t>Navratri Vrat</t>
-  </si>
-  <si>
-    <t>For Buckwheat Khichdi
-1 cup buckwheat (kuttu or kutti no daro)
-1/2 cup curd (dahi)
-1 tbsp oil
-1 tsp cumin seeds (jeera)
-1/2 cup raw potato cubes
-1 tbsp ginger-green chilli paste
-rock salt (sendha namak) or table salt to taste
-2 tbsp roasted and coarsely powdered peanuts
-1/2 tsp lemon juice
-For The Garnish
-1 tbsp finely chopped coriander (dhania) optional
-1 tsp roasted sesame seeds (til)
-For Serving With Buckwheat Khichdi
-peanut kadhi</t>
-  </si>
-  <si>
-    <t>Method
-For buckwheat khichdi
-To make buckwheat khichdi, clean, wash and soak the buckwheat in enough water for 2 hours. Drain and keep aside.
-Combine 1½ cups of water and curds in a deep bowl and whisk well. Keep aside.
-Heat the oil in a deep non-stick pan and add cumin seeds.
-When the seeds crackle, add the potatoes, mix well and cover and cook on a medium flame for 2 to 3 minutes or till the potatoes are half cooked, while stirring occasionally.
-Lower the flame, add the ginger-green chilli paste, buckwheat, curds-water mixture and rock salt, mix well and cover and cook on a slow flame for 5 to 6 minutes, while stirring occasionally.
-Add the peanuts and lemon juice, mix well and cook on a medium flame for 1 minute.
-Garnish buckwheat khichdi with coriander and sesame seeds and serve immediately with peanut kadhi.</t>
-  </si>
-  <si>
-    <t>Energy 444 cal
-Protein 12.8 g
-Carbohydrates 55.5 g
-Fiber 7.5 g
-Fat 18.4 g
-Cholesterol 8 mg
-Sodium 25.6 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/buckwheat-khichdi-farali-kutto-khichdi-recipe-vrat-recipe-fasting-recipe-33302r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 38904</t>
-  </si>
-  <si>
-    <t>Bhindi in Peanut Masala</t>
-  </si>
-  <si>
-    <t>Kadai Veg</t>
-  </si>
-  <si>
-    <t>For Bhindi Peanut Masala
-2 cups chopped ladies finger (bhindi)
-1 tbsp coconut oil or oil
-a pinch of asafoetida (hing)
-salt to taste
-To Be Mixed Together For The Peanut Masala
-1/4 cup roasted and coarsely crushed peanuts
-1/4 cup grated coconut
-1/2 cup finely chopped coriander (dhania)
-1 1/2 tsp dried mango powder (amchur)
-1 tsp finely chopped green chillies
-2 tsp coriander-cumin seeds (dhania-jeera) powder
-1 tsp finely chopped garlic (lehsun)
-1/2 tsp turmeric powder (haldi)
-salt to taste</t>
-  </si>
-  <si>
-    <t>Method
-For peanut masala
-To make peanut masala in a bowl mix peanuts, coconut, coriander, amchur, green chillies, coriander cumin seeds powder, garlic, haldi, salt and mix well.
-Bhindi in peanut masala
-To make bhindi peanut masala recipe, heat the oil in a kadhai, add the asafoetida and sauté on a slow flame for 15 seconds.
-Add the ladies finger, mix well and cook on a medium flame for 4 to 5 minutes or till the ladies finger are soft, while stirring occasionally.
-Add the prepared peanut masala and salt, mix well and cook on a medium flame for another 2 minutes, while stirring occasionally.
-Serve bhindi peanut masala recipe hot.</t>
-  </si>
-  <si>
-    <t>Energy 167 cal
-Protein 4.5 g
-Carbohydrates 6.5 g
-Fiber 4.1 g
-Fat 14.2 g
-Cholesterol 0 mg
-Sodium 9.4 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/bhindi-in-peanut-masala-38904r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42296</t>
-  </si>
-  <si>
-    <t>Quinoa Avocado Veg Healthy Office Salad</t>
-  </si>
-  <si>
-    <t>High Fiber Indian Salads</t>
-  </si>
-  <si>
-    <t>1/4 cup cooked quinoa
-1/2 cup riped avocado cubes
-1/2 cup chopped zucchini
-1/2 cup coloured capsicum cubes
-1/4 cup mushroom (khumbh) cubes
-1/4 cup cherry tomato halves
-1 cup iceberg lettuce , torn into pieces
-1 tbsp alfalfa sprouts
-1 tsp olive oil
-sea salt (khada namak) to taste
-To Be Mixed Into A Dressing
-1 tbsp olive oil
-1 tsp lemon juice
-1/4 tsp grated garlic (lehsun)
-sea salt (khada namak) to taste</t>
-  </si>
-  <si>
-    <t>Method
-Heat the olive oil in a griller pan or a broad non-stick pan, add the zucchini and sauté on a medium flame for 1 minute.
-Add the coloured capsicum and sauté on a medium flame for 1 minute.
-Add the mushroom and little sea salt and sauté on a medium flame for 1 minute.
-Cool put in a lunch box, along with other ingredients. It can be taken to work with a dressing in a separate small container.
-Just before eating, mix the dressing and toss well. Eat immediately.</t>
-  </si>
-  <si>
-    <t>Energy 459 cal
-Protein 7.7 g
-Carbohydrates 22 g
-Fiber 6.9 g
-Fat 38.9 g
-Cholesterol 0 mg
-Sodium 60.1 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/quinoa-avocado-veg-healthy-office-salad-42296r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5721</t>
-  </si>
-  <si>
-    <t>Lettuce and Bean Salad</t>
-  </si>
-  <si>
-    <t>For Lettuce and Bean Salad
-1 cup iceberg lettuce , torn into small pieces
-1 cup soaked and boiled rajma (kidney beans)
-1/2 cup soaked and boiled kabuli chana (white chick peas)
-1/2 cup chopped cucumber
-1/4 cup chopped spring onions whites
-1/4 cup finely chopped coriander (dhania)
-2 tbsp finely chopped mint leaves (phudina)
-1 tsp finely chopped green chillies
-1/4 cup cherry tomato halves
-1 tbsp lemon juice
-1/2 tsp sea salt (khada namak)</t>
-  </si>
-  <si>
-    <t>Method
-For lettuce and bean salad
-To make lettuce and bean salad, in a deep bowl put lettuce, rajma, kabuki chana, cucumber, spring onions, coriander, mint leaves, cherry tomatoes and green chillies.
-Cover with a cling wrap and chill in the fridge till you serve.
-Just before serving add lemon juice and sea salt.
-Toss well.
-Serve lettuce and bean salad immediately.</t>
-  </si>
-  <si>
-    <t>Energy 188 cal
-Protein 10.8 g
-Carbohydrates 32.1 g
-Fiber 9.2 g
-Fat 1.8 g
-Cholesterol 0 mg
-Sodium 36.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/lettuce-and-bean-salad-5721r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 33045</t>
-  </si>
-  <si>
-    <t>Bengali Khichdi, Bengali Khichuri</t>
-  </si>
-  <si>
-    <t>Weight Loss after Pregnancy</t>
-  </si>
-  <si>
-    <t>For Vegetables
-2 tsp ghee
-1/2 cup cauliflower florets
-1/4 cup fresh green peas
-1/4 cup chopped carrot
-1/4 cup chopped french beans
-Other Ingredients For Bengali Khichuri
-1/2 cup brown rice
-3/4 cup yellow moong dal (split yellow gram)
-1 tsp ghee
-1 clove (laung / lavang)
-1 small cinnamon (dalchini)
-1/4 cup chopped tomatoes
-2 tsp finely chopped green chillies
-1/2 tsp turmeric powder (haldi)
-1/4 tsp garam masala
-salt to taste
-For Serving With Bengali Khichuri
-fresh curd (dahi)</t>
-  </si>
-  <si>
-    <t>Method
-For bengali khichuri
-To make bengali khichuri, soak the brown rice in enough hot water for 1 hour. Drain and keep aside.
-Dry roast the yellow moong dal in a broad pan for 3 to 4 minutes, while stirring continuously. Remove in plate and keep aside.
-Heat 2 tsp ghee in a pressure cooker, add the cauliflower florets and saute on a medium flame for 2 minutes.
-Add the green peas, carrot and french beans and sauté on a medium flame for 2 minutes, remove the veggies in a plate and keep aside.
-In the same pressure cooker, add 1 tsp of the remaining ghee, add the clove, cinnamon and cardamom, sauté on a medium flame for few seconds.
-Add the tomatoes, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Add the green chillies, turmeric powder, garam masala and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
-Add the sauteéd vegetables, mix well and cook on a medium flame for seconds, while stirring occasionally.
-Add the roasted moong dal, soaked and drained brown rice and 3 cups of water.
-Mix well and pressure cook for 4 whistles.
-Allow the steam to escape before opening the lid.
-Serve bengali khichuri hot with fresh curd.</t>
-  </si>
-  <si>
-    <t>Energy 265 cal
-Protein 12.1 g
-Carbohydrates 42.9 g
-Fiber 5.8 g
-Fat 4.9 g
-Cholesterol 0 mg
-Sodium 21.7 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/bengali-khichdi-bengali-khichuri-33045r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42504</t>
-  </si>
-  <si>
-    <t>Healthy Broccoli Fried Rice Recipe</t>
-  </si>
-  <si>
-    <t>Vitamin E Rich Recipes for Eye Health and Vision</t>
-  </si>
-  <si>
-    <t>For Healthy Broccoli Fried Rice
-1 cup blanched broccoli florets
-2 cups cooked brown rice
-2 tsp oil
-2 tsp finely chopped garlic (lehsun)
-2 whole dry kashmiri red chillies , broken into pieces
-1/4 cup thinly sliced onions
-1 tsp finely chopped ginger (adrak)
-1 tsp finely chopped green chillies
-1/2 cup sliced coloured capsicum
-1 tsp soy sauce
-salt to taste</t>
-  </si>
-  <si>
-    <t>Method
-For healthy broccoli fried rice
-To make healthy broccoli fried rice, heat the oil in a broad non-stick pan, add the garlic and dry red chillies and sauté on a medium flame for 30 seconds.
-Add the onions, ginger and green chillies and sauté on a medium flame for 1 minute.
-Add the capsicum and sauté on a medium flame for 1 minute.
-Add the broccoli and sauté on a medium flam for 1 minute.
-Add the brown rice, soy sauce and salt, mix gently and cook on a medium flame for 2 minutes.
-Serve the healthy broccoli fried rice hot.</t>
-  </si>
-  <si>
-    <t>Energy 182 cal
-Protein 3.8 g
-Carbohydrates 31.8 g
-Fiber 2 g
-Fat 4.5 g
-Cholesterol 0 mg
-Sodium 118.4 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/healthy-broccoli-fried-rice-recipe-42504r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 39905</t>
-  </si>
-  <si>
-    <t>Cauliflower Oats Tikki, Healthy Mixed Vegetable Tikki</t>
-  </si>
-  <si>
-    <t>For Cauliflower Oats Tikki
-2 cups finely chopped and blanched cauliflower
-1/2 cup quick cooking rolled oats
-1/2 cup oats flour , refer handy tip
-3 1/4 tsp oil
-1/2 cup finely chopped onions
-1/2 cup finely chopped and boiled french beans
-1/2 cup finely chopped and boiled carrots
-1 tsp green chilli paste
-2 tbsp finely chopped coriander (dhania)
-2 tbsp finely chopped mint leaves (phudina)
-1 1/2 tsp garam masala
-1 1/2 tsp dried mango powder (amchur)
-1/2 tsp ginger (adrak) paste
-1/2 tsp chaat masala
-salt to taste
-For Serving With Cauliflower Oats Tikki
-healthy green chutney</t>
-  </si>
-  <si>
-    <t>Method
-For cauliflower oats tikki
-To make cauliflower oats tikki, heat 1 tsp of oil in a broad non-stick pan, add the onions and sauté on a medium flame for 2 minutes.
-Transfer the onions into a deep bowl, add the cauliflower, french beans and carrots, mix well and mash lightly using a potato masher.
-Add all the remaining ingredients, mix well and keep aside for 10 minutes. So the oats absorb all the flavours and binds well.
-Divide the mixture into 16 equal portions and shape each portion into a 50 mm. (2") flat round tikki.
-Heat the non-stick tava (griddle) and grease using ¼ tsp of oil.
-Cook each tikki on a slow flame using 1/8 tsp of oil, till they turn crisp and golden brown in colour from both the sides.
-Serve the cauliflower oats tikki immediately with healthy green chutney.
-Handy tip:
-To get ½ cup of oats flour, blend ½ cup of quick cooking rolled oats in a mixer to a smooth powder.</t>
-  </si>
-  <si>
-    <t>Energy 25 cal
-Protein 0.8 g
-Carbohydrates 2.7 g
-Fiber 0.8 g
-Fat 1.2 g
-Cholesterol 0 mg
-Sodium 6 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/cauliflower-oats-tikki-healthy-mixed-vegetable-tikki-39905r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42297</t>
-  </si>
-  <si>
-    <t>Rocket Leaves, Broccoli and Veg Work Healthy Salad</t>
-  </si>
-  <si>
-    <t>1 cup arugula leaves , put in cold and then dried
-1/2 cup blanched broccoli florets
-1 cup coloured capsicum cubes
-1/4 cup carrot juliennes
-1/4 cup cucumber strips
-1/2 cup zucchini strips
-1 tbsp alfalfa sprouts
-To Be Mixed Into A Dressing
-2 tsp olive oil
-1 tsp lemon juice
-salt and to taste</t>
-  </si>
-  <si>
-    <t>Method
-It can be taken to work in a lunch box with a dressing in a separate small container.
-Just before eating, mix the dressing and toss well. Eat immediately.</t>
-  </si>
-  <si>
-    <t>Energy 163 cal
-Protein 4 g
-Carbohydrates 13.8 g
-Fiber 6.3 g
-Fat 10.8 g
-Cholesterol 0 mg
-Sodium 21.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/rocket-leaves-broccoli-and-veg-work-healthy-salad-42297r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42254</t>
-  </si>
-  <si>
-    <t>Avocado Vegetable Salad, Avocado Capsicum Salad</t>
-  </si>
-  <si>
-    <t>For Avocado Vegetable Salad
-1/4 cup avocado cubes
-1/2 cup blanched broccoli florets
-1/2 cup colored capsicum cubes
-1/4 cup tomato cubes
-1/4 cup cucumber cubes
-1/2 cup iceberg lettuce , torn into pieces
-2 tsp roasted flaxseeds (alsi)
-To Be Mixed Into A Dressing
-1 tbsp olive oil
-1/2 tsp dried mixed herbs
-2 tsp lemon juice
-salt and to taste</t>
-  </si>
-  <si>
-    <t>Method
-For avocado vegetable salad
-To make avocado vegetable salad, combine all the ingredients for the salad in a bowl. It can be taken to work in a lunch box with the dressing in a separate small container.
-Just before serving, add the dressing and toss well. Serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 302 cal
-Protein 4.9 g
-Carbohydrates 11.2 g
-Fiber 5.4 g
-Fat 26.9 g
-Cholesterol 0 mg
-Sodium 37 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/avocado-vegetable-salad-avocado-capsicum-salad-42254r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1459</t>
-  </si>
-  <si>
-    <t>Coco Peanut Soup</t>
-  </si>
-  <si>
-    <t>Healthy Indian Lunch Soups</t>
-  </si>
-  <si>
-    <t>1 1/2 cups coconut milk
-1/2 cup coarsely powdered peanuts
-2 tbsp besan (bengal gram flour)
-2 tbsp oil
-1 tsp cumin seeds (jeera)
-2 tsp finely chopped green chillies
-1/4 cup finely chopped cucumber
-1/4 cup finely chopped tomatoes
-salt to taste
-2 tbsp finely chopped coriander (dhania)</t>
-  </si>
-  <si>
-    <t>Method
-Combine the coconut milk and besan in a bowl, whisk well till no lumps remain and keep aside.
-Heat the oil in a deep non-stick pan and add the cumin seeds.
-When the seeds crackle, add the green chillies and sauté on a medium flame for a few seconds.
-Add the coconut milk-besan mixture, mix well and cook on a medium flame for 3 to 4 minutes, while stirring continuously.
-Add the cucumber, tomatoes, peanuts, salt and ½ cup of water, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
-Add the coriander and mix well.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Energy 287 cal
-Protein 6.2 g
-Carbohydrates 10.7 g
-Fiber 3 g
-Fat 24.9 g
-Cholesterol 0 mg
-Sodium 11.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/coco-peanut-soup-1459r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42190</t>
-  </si>
-  <si>
-    <t>Grilled Pumpkin, Healthy Grilled Kaddu, Bhopla,</t>
-  </si>
-  <si>
-    <t>Healthy Foods for Kids</t>
-  </si>
-  <si>
-    <t>For Grilled Pumpkin
-16 sliced red pumpkin (bhopla / kaddu)
-2 tsp olive oil
-2 tsp grated garlic (lehsun)
-1/2 tsp dried mixed herbs
-sea salt (khada namak)
-freshly ground black pepper (kalimirch) to taste</t>
-  </si>
-  <si>
-    <t>Method
-For grilled pumpkin
-Make the dressing by mixing olive oil, grated garlic, mixed herbs, sea salt and pepper. Mix well.
-Rub in the dressing on both sides of the red pumpkin slices with your hands.
-Heat a griller pan or non stick pan, place the marinated red pumpkin slices on it.
-Cook on a medium flame for 2 minutes, turn them over and cook on a medium flame for 2 more minutes.
-Serve healthy grilled pumpkin (bhopla, kaddu) immediately.</t>
-  </si>
-  <si>
-    <t>Energy 10 cal
-Protein 0.2 g
-Carbohydrates 0.7 g
-Fiber 0.1 g
-Fat 0.6 g
-Cholesterol 0 mg
-Sodium 0.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/grilled-pumpkin-healthy-grilled-kaddu-bhopla-42190r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42201</t>
-  </si>
-  <si>
-    <t>Rajma Vegetable Salad, Healthy Indian Rajma Lunch Salad</t>
-  </si>
-  <si>
-    <t>For Rajma Vegetable Salad
-1/2 cup soaked and cooked rajma (kidney beans)
-1/2 cup coloured capsicum cubes
-1/2 cup baby spinach , torn into pieces
-1/2 cup rocket leaves (arugula) , torn into pieces
-1/4 cup carrot juliennes
-1/4 cup chopped spring onions
-4 cherry tomatoes , cut into halves
-2 tbsp alfalfa sprouts
-To Be Mixed Into A Dressing
-1 tbsp extra virgin olive oil
-1/4 tsp dry red chilli flakes (paprika)
-1/4 tsp dried oregano
-salt to taste</t>
-  </si>
-  <si>
-    <t>Method
-For rajma vegetable salad
-To make rajma vegetable salad, combine all the ingredients in a lunch box and mix well. Carry the dressing in a separate small container.
-Just before serving, add the dressing and toss well. Serve the rajma vegetable salad immediately.</t>
-  </si>
-  <si>
-    <t>Energy 272 cal
-Protein 8.3 g
-Carbohydrates 24.3 g
-Fiber 6 g
-Fat 15.9 g
-Cholesterol 0 mg
-Sodium 34.7 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/rajma-vegetable-salad-healthy-indian-rajma-lunch-salad-42201r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 42175</t>
-  </si>
-  <si>
-    <t>Roasted Pumpkin and Garlic</t>
-  </si>
-  <si>
-    <t>Low Calorie Quick Recipes</t>
-  </si>
-  <si>
-    <t>For Roasted Pumpkin and Garlic
-3 cups red pumpkin (bhopla / kaddu) cubes
-8 peeled garlic (lehsun) cloves
-2 tsp olive oil
-1/2 tsp sea salt (khada namak)
-freshly ground black pepper (kalimirch) to taste</t>
-  </si>
-  <si>
-    <t>Method
-For roasted pumpkin and garlic
-To make roasted pumpkin and garlic, in a deep bowl put red pumpkin (bhopla / kaddu) cubes, peeled garlic (lehsun) cloves, olive oil, sea salt (khada namak), black pepper and toss well.
-Line a baking tray with parchment paper and put the marinated pumpkin evenly all over.
-Bake in a pre-heated oven at 180°c (360°f) for 15 minutes.
-Serve the roasted pumpkin and garlic immediately.</t>
-  </si>
-  <si>
-    <t>Energy 88 cal
-Protein 2.4 g
-Carbohydrates 7.8 g
-Fiber 1.2 g
-Fat 5.2 g
-Cholesterol 0 mg
-Sodium 9.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/roasted-pumpkin-and-garlic-42175r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 279</t>
-  </si>
-  <si>
-    <t>Mushroom Curry, Indian Mushroom Masala Curry</t>
-  </si>
-  <si>
-    <t>For Mushroom Curry
-2 cups blanched and thinly sliced mushrooms (khumbh)
-2 tbsp oil
-2 cardamoms (elaichi)
-2 bayleaves (tejpatta)
-3 cloves (laung / lavang)
-1/2 tsp garam masala
-1/2 tsp chilli powder
-1 tsp finely chopped ginger (adrak)
-1 tsp finely chopped green chillies
-3/4 cup beaten fresh curd (dahi)
-1/4 cup finely chopped coriander (dhania)
-salt to taste
-For The Paste
-1 cup roughly chopped onions
-6 garlic (lehsun) cloves
-12 mm piece ginger (adrak)
-2 tbsp broken cashew nut (kaju)</t>
-  </si>
-  <si>
-    <t>Method
-For the paste
-Combine the onions and 1 cup of water in a deep vessel and cook on a medium flame till the onions turn soft. Keep aside to cool slightly.
-Add the garlic, ginger and cashewnuts and blend in a mixer to a smooth paste. Keep aside.
-How to proceed
-To make mushroom curry, heat the oil in a kadhai, add the cardamom, bayleaves and cloves and sauté on a medium flame for a few seconds.
-Add the paste and sauté on a medium flame for 2 to 3 minutes.
-Add the garam masala, chilli powder, ginger and green chillies, mix well and cook on a medium flame for 1 minute.
-Lower the flame, add the curds and mix well. Cook on a slow flame for 1 minute, while stirring continuously.
-Add the mushrooms, coriander, 1/2 cup water, salt, mix well and cook on a medium flame for another 1 to 2 minutes.
-Serve the mushroom curry hot.</t>
-  </si>
-  <si>
-    <t>Energy 160 cal
-Protein 3.6 g
-Carbohydrates 8 g
-Fiber 0.7 g
-Fat 12 g
-Cholesterol 6 mg
-Sodium 11.1 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/mushroom-curry-indian-mushroom-masala-curry-279r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1441</t>
-  </si>
-  <si>
-    <t>Healthy Burger, Veg Burger, Burger with Whole Wheat Burger Buns</t>
-  </si>
-  <si>
-    <t>For The Cutlets
-1 1/2 tsp oil
-2 1/4 cups finely chopped mixed vegetables (carrots , french beans , cabbage and green peas)
-1/4 tsp turmeric powder (haldi)
-salt to taste
-1 tbsp whole wheat flour (gehun ka atta)
-1 tsp green chilli paste
-1 tbsp finely chopped coriander (dhania)
-1 tsp oil for greasing and cooking
-Other Ingredients
-3 whole wheat burger buns
-3 tbsp low calorie mayonnaise
-3 tsp tomato ketchup
-3 iceberg lettuce leaves
-3 sliced onions
-9 cucumber slices
-6 tomato slices
-salt for sprinkling</t>
-  </si>
-  <si>
-    <t>Method
-For the cutlets
-Heat the oil in a broad non-stick pan, add the mixed vegetables, turmeric powder and salt and mix well. Cover with a lid and cook on a slow flame for 4 to 5 minutes or till the vegetables are cooked, while stirring occasionally. Sprinkle a little water to avoid the vegetables from burning and sticki
-Add the whole wheat flour and green chilli paste, mix well and cook on a slow flame for another 1 to 2 minutes, while stirring occasionally.
-Remove from the flame and lightly mash it using a potato masher.
-Add the coriander and mix well. Keep aside to cool completely.
-Divide the mixture into 3 equal portions and shape each portion into a 100 mm. (4”) diameter round, flat cutlet.
-Heat a non-stick tava (griddle) and grease it with ¼ tsp of oil.
-Cook each cutlet using ¼ tsp of oil till they turn golden brown in colour from both the sides. Keep aside.
-How to proceed
-Cut each burger bun horizontally into two and toast them lightly on a tava (griddle) from both the sides.
-Place the lower half of the bun on a clean, dry surface, spread 1 tbsp of low-cal mayonnaise and 1 tsp of the tomato ketchup and place 1 iceberg lettuce over it.
-Place a cutlet, 1 onion slice, 3 cucumber slices and 2 tomato slices and sprinkle a little salt over it.
-Cover with an upper half of the bun and press it lightly.
-Repeat steps 2 to 4 to make 2 more burgers.
-Serve immediately.</t>
-  </si>
-  <si>
-    <t>Energy 314 cal
-Protein 9.8 g
-Carbohydrates 47.6 g
-Fiber 5.8 g
-Fat 9.5 g
-Cholesterol 0 mg
-Sodium 132.5 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/healthy-burger-veg-burger-burger-with-whole-wheat-burger-buns-1441r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 41218</t>
-  </si>
-  <si>
-    <t>Spicy Broccoli Subzi</t>
-  </si>
-  <si>
-    <t>Healthy Dinner Weight Loss</t>
-  </si>
-  <si>
-    <t>3 cups broccoli florets
-2 tbsp roasted chana dal (daria)
-2 tbsp urad dal (split black lentils)
-2 tsp cumin seeds (jeera)
-1 bayleaf (tejpatta)
-1/2 cup finely chopped onions
-salt to taste
-3/4 tsp chilli powder
-1/2 tsp garam masala</t>
-  </si>
-  <si>
-    <t>Method
-Combine the roasted chana dal, urad dal and 1 tsp of cumin seeds in a small non-stick pan and dry roast on a medium flame for 4 to 5 minutes.
-Cool and blend in a mixer along with 1 cup of water till smooth. Keep aside.
-Heat a deep non-stick pan on a medium flame and when it is hot, add the remaining 1 tsp of cumin seeds and bayleaf and dry roast on a medium flame for 30 seconds.
-Add the onions and dry roast on a medium flame for 2 to 3 minutes.
-Add the broccoli and salt, mix well and cook on a medium flame for 2 minutes.
-Add ½ cup of water, cover with a lid and cook on a medium flame for 8 to 10 minutes, while stirring occasionally.
-Add the chilli powder, garam masala and ½ cup of water, mix well and cook on a medium flame for 1 minute.
-Add the roasted chana dal-ural dal mixture and 1½ cups of water, mix well and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Energy 45 cal
-Protein 3.3 g
-Carbohydrates 8 g
-Fiber 1.6 g
-Fat 0.3 g
-Cholesterol 0 mg
-Sodium 11.6 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/spicy-broccoli-subzi-41218r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 760</t>
-  </si>
-  <si>
-    <t>Rajma, Bean Sprouts and Spring Onion Salad</t>
-  </si>
-  <si>
-    <t>Potassium Rich</t>
-  </si>
-  <si>
-    <t>1 cup soaked and cooked rajma (kidney beans)
-3/4 cup bean sprouts
-1/2 cup chopped spring onion whites and greens
-3/4 cup finely chopped tomatoes
-2 tsp lemon juice
-salt to taste</t>
-  </si>
-  <si>
-    <t>Method
-Combine all the ingredients in a deep bowl and toss well.
-Refrigerate for atleast 1 hour and serve chilled.</t>
-  </si>
-  <si>
-    <t>Energy 57 cal
-Protein 3.6 g
-Carbohydrates 10.2 g
-Fiber 1.6 g
-Fat 0.3 g
-Cholesterol 0 mg
-Sodium 5.3 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/rajma-bean-sprouts-and-spring-onion-salad-760r</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1369</t>
-  </si>
-  <si>
-    <t>Spinach and Vegetable Delight</t>
-  </si>
-  <si>
-    <t>Cancer Lunch</t>
-  </si>
-  <si>
-    <t>2 tbsp soaked and boiled chana dal (split bengal gram)
-2 tsp oil
-1/4 cup chopped onions
-1/2 cup chopped and boiled mixed vegetables (French beans, carrots, cauliflower, green peas)
-1/4 cup chopped tomatoes
-25 ginger (adrak) , finely chopped
-1/4 tsp green chilli paste
-1/2 tsp turmeric powder (haldi)
-1 tsp coriander (dhania) powder
-1/2 tsp chilli powder
-salt to taste
-2 cups chopped spinach (palak)</t>
-  </si>
-  <si>
-    <t>Method
-Heat the oil in a non-stick pan, add the onions and sauté on a medium flame for 2 to 3 minutes.
-Add the mixed vegetables and tomatoes and sauté on a medium flame for 2 to 3 minutes.
-Add the ginger, green chilli paste, turmeric powder, coriander powder and chilli powder and salt and mix well.
-Add the boiled dal, mix well and cook for 2 minutes.
-Add the spinach and ¼ cup of water and cook for 4 to 5 minutes, while stirring continuously.
-Serve hot.</t>
-  </si>
-  <si>
-    <t>Energy 73 cal
-Protein 2.9 g
-Carbohydrates 8.1 g
-Fiber 3 g
-Fat 3.2 g
-Cholesterol 0 mg
-Sodium 30.9 mg</t>
-  </si>
-  <si>
-    <t>https://www.tarladalal.com/spinach-and-vegetable-delight-1369r</t>
   </si>
   <si>
     <t>No of Recipes</t>
@@ -4614,10 +3813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:QE11"/>
+  <dimension ref="A2:QE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="HY1" sqref="HY1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4627,332 +3826,6 @@
     <col min="377" max="377" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:447" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="E1">
-        <v>2</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
-      </c>
-      <c r="I1">
-        <v>4</v>
-      </c>
-      <c r="K1">
-        <v>5</v>
-      </c>
-      <c r="M1">
-        <v>6</v>
-      </c>
-      <c r="O1">
-        <v>7</v>
-      </c>
-      <c r="Q1">
-        <v>8</v>
-      </c>
-      <c r="S1">
-        <v>9</v>
-      </c>
-      <c r="U1">
-        <v>10</v>
-      </c>
-      <c r="W1">
-        <v>11</v>
-      </c>
-      <c r="Y1">
-        <v>12</v>
-      </c>
-      <c r="AA1">
-        <v>13</v>
-      </c>
-      <c r="AC1">
-        <v>14</v>
-      </c>
-      <c r="AE1">
-        <v>15</v>
-      </c>
-      <c r="AG1">
-        <v>16</v>
-      </c>
-      <c r="AI1">
-        <v>17</v>
-      </c>
-      <c r="AK1">
-        <v>18</v>
-      </c>
-      <c r="AM1">
-        <v>19</v>
-      </c>
-      <c r="AO1">
-        <v>20</v>
-      </c>
-      <c r="AQ1">
-        <v>21</v>
-      </c>
-      <c r="AS1">
-        <v>22</v>
-      </c>
-      <c r="AU1">
-        <v>23</v>
-      </c>
-      <c r="AW1">
-        <v>24</v>
-      </c>
-      <c r="AY1">
-        <v>25</v>
-      </c>
-      <c r="BA1">
-        <v>26</v>
-      </c>
-      <c r="BC1">
-        <v>27</v>
-      </c>
-      <c r="BE1">
-        <v>28</v>
-      </c>
-      <c r="BG1">
-        <v>29</v>
-      </c>
-      <c r="BI1">
-        <v>30</v>
-      </c>
-      <c r="BK1">
-        <v>31</v>
-      </c>
-      <c r="BM1">
-        <v>32</v>
-      </c>
-      <c r="BO1">
-        <v>33</v>
-      </c>
-      <c r="BQ1">
-        <v>34</v>
-      </c>
-      <c r="BS1">
-        <v>35</v>
-      </c>
-      <c r="BU1">
-        <v>36</v>
-      </c>
-      <c r="BW1">
-        <v>37</v>
-      </c>
-      <c r="BY1">
-        <v>38</v>
-      </c>
-      <c r="CA1">
-        <v>39</v>
-      </c>
-      <c r="CC1">
-        <v>40</v>
-      </c>
-      <c r="CE1">
-        <v>41</v>
-      </c>
-      <c r="CG1">
-        <v>42</v>
-      </c>
-      <c r="CI1">
-        <v>43</v>
-      </c>
-      <c r="CK1">
-        <v>44</v>
-      </c>
-      <c r="CM1">
-        <v>45</v>
-      </c>
-      <c r="CO1">
-        <v>46</v>
-      </c>
-      <c r="CQ1">
-        <v>47</v>
-      </c>
-      <c r="CS1">
-        <v>48</v>
-      </c>
-      <c r="CU1">
-        <v>49</v>
-      </c>
-      <c r="CW1">
-        <v>50</v>
-      </c>
-      <c r="CY1">
-        <v>51</v>
-      </c>
-      <c r="DA1">
-        <v>52</v>
-      </c>
-      <c r="DC1">
-        <v>53</v>
-      </c>
-      <c r="DE1">
-        <v>54</v>
-      </c>
-      <c r="DG1">
-        <v>55</v>
-      </c>
-      <c r="DI1">
-        <v>56</v>
-      </c>
-      <c r="DK1">
-        <v>57</v>
-      </c>
-      <c r="DM1">
-        <v>58</v>
-      </c>
-      <c r="DO1">
-        <v>59</v>
-      </c>
-      <c r="DQ1">
-        <v>60</v>
-      </c>
-      <c r="DS1">
-        <v>61</v>
-      </c>
-      <c r="DU1">
-        <v>62</v>
-      </c>
-      <c r="DW1">
-        <v>63</v>
-      </c>
-      <c r="DY1">
-        <v>64</v>
-      </c>
-      <c r="EA1">
-        <v>65</v>
-      </c>
-      <c r="EC1">
-        <v>66</v>
-      </c>
-      <c r="EE1">
-        <v>67</v>
-      </c>
-      <c r="EG1">
-        <v>68</v>
-      </c>
-      <c r="EI1">
-        <v>69</v>
-      </c>
-      <c r="EK1">
-        <v>70</v>
-      </c>
-      <c r="EM1">
-        <v>71</v>
-      </c>
-      <c r="EO1">
-        <v>72</v>
-      </c>
-      <c r="EQ1">
-        <v>73</v>
-      </c>
-      <c r="ES1">
-        <v>74</v>
-      </c>
-      <c r="EU1">
-        <v>75</v>
-      </c>
-      <c r="EW1">
-        <v>76</v>
-      </c>
-      <c r="EY1">
-        <v>77</v>
-      </c>
-      <c r="FA1">
-        <v>78</v>
-      </c>
-      <c r="FC1">
-        <v>79</v>
-      </c>
-      <c r="FE1">
-        <v>80</v>
-      </c>
-      <c r="FG1">
-        <v>81</v>
-      </c>
-      <c r="FI1">
-        <v>82</v>
-      </c>
-      <c r="FK1">
-        <v>83</v>
-      </c>
-      <c r="FM1">
-        <v>84</v>
-      </c>
-      <c r="FO1">
-        <v>85</v>
-      </c>
-      <c r="FQ1">
-        <v>86</v>
-      </c>
-      <c r="FS1">
-        <v>87</v>
-      </c>
-      <c r="FU1">
-        <v>88</v>
-      </c>
-      <c r="FW1">
-        <v>89</v>
-      </c>
-      <c r="FY1">
-        <v>90</v>
-      </c>
-      <c r="GA1">
-        <v>91</v>
-      </c>
-      <c r="GC1">
-        <v>92</v>
-      </c>
-      <c r="GE1">
-        <v>93</v>
-      </c>
-      <c r="GG1">
-        <v>94</v>
-      </c>
-      <c r="GI1">
-        <v>95</v>
-      </c>
-      <c r="GK1">
-        <v>96</v>
-      </c>
-      <c r="GM1">
-        <v>97</v>
-      </c>
-      <c r="GO1">
-        <v>98</v>
-      </c>
-      <c r="GQ1">
-        <v>99</v>
-      </c>
-      <c r="GS1">
-        <v>100</v>
-      </c>
-      <c r="GU1">
-        <v>101</v>
-      </c>
-      <c r="GW1">
-        <v>102</v>
-      </c>
-      <c r="GY1">
-        <v>103</v>
-      </c>
-      <c r="HA1">
-        <v>104</v>
-      </c>
-      <c r="HC1">
-        <v>105</v>
-      </c>
-      <c r="HE1">
-        <v>106</v>
-      </c>
-      <c r="HG1">
-        <v>107</v>
-      </c>
-    </row>
     <row r="2" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
@@ -5177,105 +4050,6 @@
         <v>519</v>
       </c>
       <c r="ES2" t="s">
-        <v>528</v>
-      </c>
-      <c r="EU2" t="s">
-        <v>534</v>
-      </c>
-      <c r="EW2" t="s">
-        <v>541</v>
-      </c>
-      <c r="EY2" t="s">
-        <v>548</v>
-      </c>
-      <c r="FA2" t="s">
-        <v>555</v>
-      </c>
-      <c r="FC2" t="s">
-        <v>561</v>
-      </c>
-      <c r="FE2" t="s">
-        <v>568</v>
-      </c>
-      <c r="FG2" t="s">
-        <v>146</v>
-      </c>
-      <c r="FI2" t="s">
-        <v>575</v>
-      </c>
-      <c r="FK2" t="s">
-        <v>180</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>208</v>
-      </c>
-      <c r="FO2" t="s">
-        <v>581</v>
-      </c>
-      <c r="FQ2" t="s">
-        <v>230</v>
-      </c>
-      <c r="FS2" t="s">
-        <v>587</v>
-      </c>
-      <c r="FU2" t="s">
-        <v>237</v>
-      </c>
-      <c r="FW2" t="s">
-        <v>593</v>
-      </c>
-      <c r="FY2" t="s">
-        <v>600</v>
-      </c>
-      <c r="GA2" t="s">
-        <v>607</v>
-      </c>
-      <c r="GC2" t="s">
-        <v>613</v>
-      </c>
-      <c r="GE2" t="s">
-        <v>620</v>
-      </c>
-      <c r="GG2" t="s">
-        <v>245</v>
-      </c>
-      <c r="GI2" t="s">
-        <v>626</v>
-      </c>
-      <c r="GK2" t="s">
-        <v>274</v>
-      </c>
-      <c r="GM2" t="s">
-        <v>281</v>
-      </c>
-      <c r="GO2" t="s">
-        <v>288</v>
-      </c>
-      <c r="GQ2" t="s">
-        <v>314</v>
-      </c>
-      <c r="GS2" t="s">
-        <v>632</v>
-      </c>
-      <c r="GU2" t="s">
-        <v>639</v>
-      </c>
-      <c r="GW2" t="s">
-        <v>334</v>
-      </c>
-      <c r="GY2" t="s">
-        <v>341</v>
-      </c>
-      <c r="HA2" t="s">
-        <v>398</v>
-      </c>
-      <c r="HC2" t="s">
-        <v>438</v>
-      </c>
-      <c r="HE2" t="s">
-        <v>646</v>
-      </c>
-      <c r="HG2" t="s">
         <v>528</v>
       </c>
     </row>
@@ -5505,105 +4279,6 @@
       <c r="ES3" t="s">
         <v>529</v>
       </c>
-      <c r="EU3" t="s">
-        <v>535</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>542</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>549</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>556</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>562</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>569</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>147</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>576</v>
-      </c>
-      <c r="FK3" t="s">
-        <v>181</v>
-      </c>
-      <c r="FM3" t="s">
-        <v>209</v>
-      </c>
-      <c r="FO3" t="s">
-        <v>582</v>
-      </c>
-      <c r="FQ3" t="s">
-        <v>231</v>
-      </c>
-      <c r="FS3" t="s">
-        <v>588</v>
-      </c>
-      <c r="FU3" t="s">
-        <v>238</v>
-      </c>
-      <c r="FW3" t="s">
-        <v>594</v>
-      </c>
-      <c r="FY3" t="s">
-        <v>601</v>
-      </c>
-      <c r="GA3" t="s">
-        <v>608</v>
-      </c>
-      <c r="GC3" t="s">
-        <v>614</v>
-      </c>
-      <c r="GE3" t="s">
-        <v>621</v>
-      </c>
-      <c r="GG3" t="s">
-        <v>246</v>
-      </c>
-      <c r="GI3" t="s">
-        <v>627</v>
-      </c>
-      <c r="GK3" t="s">
-        <v>275</v>
-      </c>
-      <c r="GM3" t="s">
-        <v>282</v>
-      </c>
-      <c r="GO3" t="s">
-        <v>289</v>
-      </c>
-      <c r="GQ3" t="s">
-        <v>315</v>
-      </c>
-      <c r="GS3" t="s">
-        <v>633</v>
-      </c>
-      <c r="GU3" t="s">
-        <v>640</v>
-      </c>
-      <c r="GW3" t="s">
-        <v>335</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>342</v>
-      </c>
-      <c r="HA3" t="s">
-        <v>399</v>
-      </c>
-      <c r="HC3" t="s">
-        <v>439</v>
-      </c>
-      <c r="HE3" t="s">
-        <v>647</v>
-      </c>
-      <c r="HG3" t="s">
-        <v>529</v>
-      </c>
     </row>
     <row r="4" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5831,105 +4506,6 @@
       <c r="ES4" t="s">
         <v>336</v>
       </c>
-      <c r="EU4" t="s">
-        <v>536</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>543</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>550</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>125</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>563</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>570</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>141</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>283</v>
-      </c>
-      <c r="FK4" t="s">
-        <v>182</v>
-      </c>
-      <c r="FM4" t="s">
-        <v>210</v>
-      </c>
-      <c r="FO4" t="s">
-        <v>182</v>
-      </c>
-      <c r="FQ4" t="s">
-        <v>232</v>
-      </c>
-      <c r="FS4" t="s">
-        <v>133</v>
-      </c>
-      <c r="FU4" t="s">
-        <v>239</v>
-      </c>
-      <c r="FW4" t="s">
-        <v>595</v>
-      </c>
-      <c r="FY4" t="s">
-        <v>602</v>
-      </c>
-      <c r="GA4" t="s">
-        <v>393</v>
-      </c>
-      <c r="GC4" t="s">
-        <v>615</v>
-      </c>
-      <c r="GE4" t="s">
-        <v>40</v>
-      </c>
-      <c r="GG4" t="s">
-        <v>247</v>
-      </c>
-      <c r="GI4" t="s">
-        <v>116</v>
-      </c>
-      <c r="GK4" t="s">
-        <v>247</v>
-      </c>
-      <c r="GM4" t="s">
-        <v>283</v>
-      </c>
-      <c r="GO4" t="s">
-        <v>290</v>
-      </c>
-      <c r="GQ4" t="s">
-        <v>316</v>
-      </c>
-      <c r="GS4" t="s">
-        <v>634</v>
-      </c>
-      <c r="GU4" t="s">
-        <v>641</v>
-      </c>
-      <c r="GW4" t="s">
-        <v>336</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>343</v>
-      </c>
-      <c r="HA4" t="s">
-        <v>225</v>
-      </c>
-      <c r="HC4" t="s">
-        <v>440</v>
-      </c>
-      <c r="HE4" t="s">
-        <v>648</v>
-      </c>
-      <c r="HG4" t="s">
-        <v>336</v>
-      </c>
     </row>
     <row r="5" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -6157,105 +4733,6 @@
       <c r="ES5" t="s">
         <v>530</v>
       </c>
-      <c r="EU5" t="s">
-        <v>537</v>
-      </c>
-      <c r="EW5" t="s">
-        <v>544</v>
-      </c>
-      <c r="EY5" t="s">
-        <v>551</v>
-      </c>
-      <c r="FA5" t="s">
-        <v>557</v>
-      </c>
-      <c r="FC5" t="s">
-        <v>564</v>
-      </c>
-      <c r="FE5" t="s">
-        <v>571</v>
-      </c>
-      <c r="FG5" t="s">
-        <v>148</v>
-      </c>
-      <c r="FI5" t="s">
-        <v>577</v>
-      </c>
-      <c r="FK5" t="s">
-        <v>183</v>
-      </c>
-      <c r="FM5" t="s">
-        <v>211</v>
-      </c>
-      <c r="FO5" t="s">
-        <v>583</v>
-      </c>
-      <c r="FQ5" t="s">
-        <v>233</v>
-      </c>
-      <c r="FS5" t="s">
-        <v>589</v>
-      </c>
-      <c r="FU5" t="s">
-        <v>240</v>
-      </c>
-      <c r="FW5" t="s">
-        <v>596</v>
-      </c>
-      <c r="FY5" t="s">
-        <v>603</v>
-      </c>
-      <c r="GA5" t="s">
-        <v>609</v>
-      </c>
-      <c r="GC5" t="s">
-        <v>616</v>
-      </c>
-      <c r="GE5" t="s">
-        <v>622</v>
-      </c>
-      <c r="GG5" t="s">
-        <v>248</v>
-      </c>
-      <c r="GI5" t="s">
-        <v>628</v>
-      </c>
-      <c r="GK5" t="s">
-        <v>276</v>
-      </c>
-      <c r="GM5" t="s">
-        <v>284</v>
-      </c>
-      <c r="GO5" t="s">
-        <v>291</v>
-      </c>
-      <c r="GQ5" t="s">
-        <v>317</v>
-      </c>
-      <c r="GS5" t="s">
-        <v>635</v>
-      </c>
-      <c r="GU5" t="s">
-        <v>642</v>
-      </c>
-      <c r="GW5" t="s">
-        <v>337</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>344</v>
-      </c>
-      <c r="HA5" t="s">
-        <v>400</v>
-      </c>
-      <c r="HC5" t="s">
-        <v>441</v>
-      </c>
-      <c r="HE5" t="s">
-        <v>649</v>
-      </c>
-      <c r="HG5" t="s">
-        <v>530</v>
-      </c>
     </row>
     <row r="6" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -6483,105 +4960,6 @@
       <c r="ES6" t="s">
         <v>59</v>
       </c>
-      <c r="EU6" t="s">
-        <v>59</v>
-      </c>
-      <c r="EW6" t="s">
-        <v>33</v>
-      </c>
-      <c r="EY6" t="s">
-        <v>33</v>
-      </c>
-      <c r="FA6" t="s">
-        <v>24</v>
-      </c>
-      <c r="FC6" t="s">
-        <v>24</v>
-      </c>
-      <c r="FE6" t="s">
-        <v>14</v>
-      </c>
-      <c r="FG6" t="s">
-        <v>24</v>
-      </c>
-      <c r="FI6" t="s">
-        <v>24</v>
-      </c>
-      <c r="FK6" t="s">
-        <v>33</v>
-      </c>
-      <c r="FM6" t="s">
-        <v>33</v>
-      </c>
-      <c r="FO6" t="s">
-        <v>33</v>
-      </c>
-      <c r="FQ6" t="s">
-        <v>33</v>
-      </c>
-      <c r="FS6" t="s">
-        <v>59</v>
-      </c>
-      <c r="FU6" t="s">
-        <v>59</v>
-      </c>
-      <c r="FW6" t="s">
-        <v>59</v>
-      </c>
-      <c r="FY6" t="s">
-        <v>14</v>
-      </c>
-      <c r="GA6" t="s">
-        <v>33</v>
-      </c>
-      <c r="GC6" t="s">
-        <v>59</v>
-      </c>
-      <c r="GE6" t="s">
-        <v>59</v>
-      </c>
-      <c r="GG6" t="s">
-        <v>33</v>
-      </c>
-      <c r="GI6" t="s">
-        <v>15</v>
-      </c>
-      <c r="GK6" t="s">
-        <v>33</v>
-      </c>
-      <c r="GM6" t="s">
-        <v>59</v>
-      </c>
-      <c r="GO6" t="s">
-        <v>15</v>
-      </c>
-      <c r="GQ6" t="s">
-        <v>24</v>
-      </c>
-      <c r="GS6" t="s">
-        <v>33</v>
-      </c>
-      <c r="GU6" t="s">
-        <v>24</v>
-      </c>
-      <c r="GW6" t="s">
-        <v>24</v>
-      </c>
-      <c r="GY6" t="s">
-        <v>59</v>
-      </c>
-      <c r="HA6" t="s">
-        <v>59</v>
-      </c>
-      <c r="HC6" t="s">
-        <v>33</v>
-      </c>
-      <c r="HE6" t="s">
-        <v>59</v>
-      </c>
-      <c r="HG6" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="7" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6809,105 +5187,6 @@
       <c r="ES7" t="s">
         <v>33</v>
       </c>
-      <c r="EU7" t="s">
-        <v>277</v>
-      </c>
-      <c r="EW7" t="s">
-        <v>135</v>
-      </c>
-      <c r="EY7" t="s">
-        <v>43</v>
-      </c>
-      <c r="FA7" t="s">
-        <v>103</v>
-      </c>
-      <c r="FC7" t="s">
-        <v>127</v>
-      </c>
-      <c r="FE7" t="s">
-        <v>60</v>
-      </c>
-      <c r="FG7" t="s">
-        <v>135</v>
-      </c>
-      <c r="FI7" t="s">
-        <v>33</v>
-      </c>
-      <c r="FK7" t="s">
-        <v>103</v>
-      </c>
-      <c r="FM7" t="s">
-        <v>212</v>
-      </c>
-      <c r="FO7" t="s">
-        <v>103</v>
-      </c>
-      <c r="FQ7" t="s">
-        <v>59</v>
-      </c>
-      <c r="FS7" t="s">
-        <v>103</v>
-      </c>
-      <c r="FU7" t="s">
-        <v>241</v>
-      </c>
-      <c r="FW7" t="s">
-        <v>135</v>
-      </c>
-      <c r="FY7" t="s">
-        <v>365</v>
-      </c>
-      <c r="GA7" t="s">
-        <v>103</v>
-      </c>
-      <c r="GC7" t="s">
-        <v>103</v>
-      </c>
-      <c r="GE7" t="s">
-        <v>59</v>
-      </c>
-      <c r="GG7" t="s">
-        <v>59</v>
-      </c>
-      <c r="GI7" t="s">
-        <v>59</v>
-      </c>
-      <c r="GK7" t="s">
-        <v>277</v>
-      </c>
-      <c r="GM7" t="s">
-        <v>24</v>
-      </c>
-      <c r="GO7" t="s">
-        <v>34</v>
-      </c>
-      <c r="GQ7" t="s">
-        <v>277</v>
-      </c>
-      <c r="GS7" t="s">
-        <v>15</v>
-      </c>
-      <c r="GU7" t="s">
-        <v>103</v>
-      </c>
-      <c r="GW7" t="s">
-        <v>60</v>
-      </c>
-      <c r="GY7" t="s">
-        <v>345</v>
-      </c>
-      <c r="HA7" t="s">
-        <v>401</v>
-      </c>
-      <c r="HC7" t="s">
-        <v>43</v>
-      </c>
-      <c r="HE7" t="s">
-        <v>59</v>
-      </c>
-      <c r="HG7" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="8" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -7135,105 +5414,6 @@
       <c r="ES8" t="s">
         <v>531</v>
       </c>
-      <c r="EU8" t="s">
-        <v>538</v>
-      </c>
-      <c r="EW8" t="s">
-        <v>545</v>
-      </c>
-      <c r="EY8" t="s">
-        <v>552</v>
-      </c>
-      <c r="FA8" t="s">
-        <v>558</v>
-      </c>
-      <c r="FC8" t="s">
-        <v>565</v>
-      </c>
-      <c r="FE8" t="s">
-        <v>572</v>
-      </c>
-      <c r="FG8" t="s">
-        <v>149</v>
-      </c>
-      <c r="FI8" t="s">
-        <v>578</v>
-      </c>
-      <c r="FK8" t="s">
-        <v>184</v>
-      </c>
-      <c r="FM8" t="s">
-        <v>213</v>
-      </c>
-      <c r="FO8" t="s">
-        <v>584</v>
-      </c>
-      <c r="FQ8" t="s">
-        <v>234</v>
-      </c>
-      <c r="FS8" t="s">
-        <v>590</v>
-      </c>
-      <c r="FU8" t="s">
-        <v>242</v>
-      </c>
-      <c r="FW8" t="s">
-        <v>597</v>
-      </c>
-      <c r="FY8" t="s">
-        <v>604</v>
-      </c>
-      <c r="GA8" t="s">
-        <v>610</v>
-      </c>
-      <c r="GC8" t="s">
-        <v>617</v>
-      </c>
-      <c r="GE8" t="s">
-        <v>623</v>
-      </c>
-      <c r="GG8" t="s">
-        <v>249</v>
-      </c>
-      <c r="GI8" t="s">
-        <v>629</v>
-      </c>
-      <c r="GK8" t="s">
-        <v>278</v>
-      </c>
-      <c r="GM8" t="s">
-        <v>285</v>
-      </c>
-      <c r="GO8" t="s">
-        <v>292</v>
-      </c>
-      <c r="GQ8" t="s">
-        <v>318</v>
-      </c>
-      <c r="GS8" t="s">
-        <v>636</v>
-      </c>
-      <c r="GU8" t="s">
-        <v>643</v>
-      </c>
-      <c r="GW8" t="s">
-        <v>338</v>
-      </c>
-      <c r="GY8" t="s">
-        <v>346</v>
-      </c>
-      <c r="HA8" t="s">
-        <v>402</v>
-      </c>
-      <c r="HC8" t="s">
-        <v>442</v>
-      </c>
-      <c r="HE8" t="s">
-        <v>650</v>
-      </c>
-      <c r="HG8" t="s">
-        <v>531</v>
-      </c>
     </row>
     <row r="9" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -7461,105 +5641,6 @@
       <c r="ES9" t="s">
         <v>532</v>
       </c>
-      <c r="EU9" t="s">
-        <v>539</v>
-      </c>
-      <c r="EW9" t="s">
-        <v>546</v>
-      </c>
-      <c r="EY9" t="s">
-        <v>553</v>
-      </c>
-      <c r="FA9" t="s">
-        <v>559</v>
-      </c>
-      <c r="FC9" t="s">
-        <v>566</v>
-      </c>
-      <c r="FE9" t="s">
-        <v>573</v>
-      </c>
-      <c r="FG9" t="s">
-        <v>150</v>
-      </c>
-      <c r="FI9" t="s">
-        <v>579</v>
-      </c>
-      <c r="FK9" t="s">
-        <v>185</v>
-      </c>
-      <c r="FM9" t="s">
-        <v>214</v>
-      </c>
-      <c r="FO9" t="s">
-        <v>585</v>
-      </c>
-      <c r="FQ9" t="s">
-        <v>235</v>
-      </c>
-      <c r="FS9" t="s">
-        <v>591</v>
-      </c>
-      <c r="FU9" t="s">
-        <v>243</v>
-      </c>
-      <c r="FW9" t="s">
-        <v>598</v>
-      </c>
-      <c r="FY9" t="s">
-        <v>605</v>
-      </c>
-      <c r="GA9" t="s">
-        <v>611</v>
-      </c>
-      <c r="GC9" t="s">
-        <v>618</v>
-      </c>
-      <c r="GE9" t="s">
-        <v>624</v>
-      </c>
-      <c r="GG9" t="s">
-        <v>250</v>
-      </c>
-      <c r="GI9" t="s">
-        <v>630</v>
-      </c>
-      <c r="GK9" t="s">
-        <v>279</v>
-      </c>
-      <c r="GM9" t="s">
-        <v>286</v>
-      </c>
-      <c r="GO9" t="s">
-        <v>293</v>
-      </c>
-      <c r="GQ9" t="s">
-        <v>319</v>
-      </c>
-      <c r="GS9" t="s">
-        <v>637</v>
-      </c>
-      <c r="GU9" t="s">
-        <v>644</v>
-      </c>
-      <c r="GW9" t="s">
-        <v>339</v>
-      </c>
-      <c r="GY9" t="s">
-        <v>347</v>
-      </c>
-      <c r="HA9" t="s">
-        <v>403</v>
-      </c>
-      <c r="HC9" t="s">
-        <v>443</v>
-      </c>
-      <c r="HE9" t="s">
-        <v>651</v>
-      </c>
-      <c r="HG9" t="s">
-        <v>532</v>
-      </c>
     </row>
     <row r="10" spans="1:447" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -7785,105 +5866,6 @@
         <v>18</v>
       </c>
       <c r="ES10" t="s">
-        <v>18</v>
-      </c>
-      <c r="EU10" t="s">
-        <v>18</v>
-      </c>
-      <c r="EW10" t="s">
-        <v>18</v>
-      </c>
-      <c r="EY10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FA10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FC10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FE10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FG10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FI10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FK10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FM10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FO10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FQ10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FS10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FU10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FW10" t="s">
-        <v>18</v>
-      </c>
-      <c r="FY10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GA10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GC10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GE10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GG10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GI10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GK10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GM10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GO10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GQ10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GS10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GU10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GW10" t="s">
-        <v>18</v>
-      </c>
-      <c r="GY10" t="s">
-        <v>18</v>
-      </c>
-      <c r="HA10" t="s">
-        <v>18</v>
-      </c>
-      <c r="HC10" t="s">
-        <v>18</v>
-      </c>
-      <c r="HE10" t="s">
-        <v>18</v>
-      </c>
-      <c r="HG10" t="s">
         <v>18</v>
       </c>
       <c r="HI10" s="1"/>
@@ -8229,104 +6211,232 @@
       <c r="ES11" t="s">
         <v>533</v>
       </c>
-      <c r="EU11" t="s">
-        <v>540</v>
-      </c>
-      <c r="EW11" t="s">
-        <v>547</v>
-      </c>
-      <c r="EY11" t="s">
-        <v>554</v>
-      </c>
-      <c r="FA11" t="s">
-        <v>560</v>
-      </c>
-      <c r="FC11" t="s">
-        <v>567</v>
-      </c>
-      <c r="FE11" t="s">
-        <v>574</v>
-      </c>
-      <c r="FG11" t="s">
-        <v>151</v>
-      </c>
-      <c r="FI11" t="s">
-        <v>580</v>
-      </c>
-      <c r="FK11" t="s">
-        <v>186</v>
-      </c>
-      <c r="FM11" t="s">
-        <v>215</v>
-      </c>
-      <c r="FO11" t="s">
-        <v>586</v>
-      </c>
-      <c r="FQ11" t="s">
-        <v>236</v>
-      </c>
-      <c r="FS11" t="s">
-        <v>592</v>
-      </c>
-      <c r="FU11" t="s">
-        <v>244</v>
-      </c>
-      <c r="FW11" t="s">
-        <v>599</v>
-      </c>
-      <c r="FY11" t="s">
-        <v>606</v>
-      </c>
-      <c r="GA11" t="s">
-        <v>612</v>
-      </c>
-      <c r="GC11" t="s">
-        <v>619</v>
-      </c>
-      <c r="GE11" t="s">
-        <v>625</v>
-      </c>
-      <c r="GG11" t="s">
-        <v>251</v>
-      </c>
-      <c r="GI11" t="s">
-        <v>631</v>
-      </c>
-      <c r="GK11" t="s">
-        <v>280</v>
-      </c>
-      <c r="GM11" t="s">
-        <v>287</v>
-      </c>
-      <c r="GO11" t="s">
-        <v>294</v>
-      </c>
-      <c r="GQ11" t="s">
-        <v>320</v>
-      </c>
-      <c r="GS11" t="s">
-        <v>638</v>
-      </c>
-      <c r="GU11" t="s">
-        <v>645</v>
-      </c>
-      <c r="GW11" t="s">
-        <v>340</v>
-      </c>
-      <c r="GY11" t="s">
-        <v>348</v>
-      </c>
-      <c r="HA11" t="s">
-        <v>404</v>
-      </c>
-      <c r="HC11" t="s">
-        <v>444</v>
-      </c>
-      <c r="HE11" t="s">
-        <v>652</v>
-      </c>
-      <c r="HG11" t="s">
-        <v>533</v>
+    </row>
+    <row r="14" spans="1:447" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>534</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>6</v>
+      </c>
+      <c r="O14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>8</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="W14">
+        <v>11</v>
+      </c>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+      <c r="AA14">
+        <v>13</v>
+      </c>
+      <c r="AC14">
+        <v>14</v>
+      </c>
+      <c r="AE14">
+        <v>15</v>
+      </c>
+      <c r="AG14">
+        <v>16</v>
+      </c>
+      <c r="AI14">
+        <v>17</v>
+      </c>
+      <c r="AK14">
+        <v>18</v>
+      </c>
+      <c r="AM14">
+        <v>19</v>
+      </c>
+      <c r="AO14">
+        <v>20</v>
+      </c>
+      <c r="AQ14">
+        <v>21</v>
+      </c>
+      <c r="AS14">
+        <v>22</v>
+      </c>
+      <c r="AU14">
+        <v>23</v>
+      </c>
+      <c r="AW14">
+        <v>24</v>
+      </c>
+      <c r="AY14">
+        <v>25</v>
+      </c>
+      <c r="BA14">
+        <v>26</v>
+      </c>
+      <c r="BC14">
+        <v>27</v>
+      </c>
+      <c r="BE14">
+        <v>28</v>
+      </c>
+      <c r="BG14">
+        <v>29</v>
+      </c>
+      <c r="BI14">
+        <v>30</v>
+      </c>
+      <c r="BK14">
+        <v>31</v>
+      </c>
+      <c r="BM14">
+        <v>32</v>
+      </c>
+      <c r="BO14">
+        <v>33</v>
+      </c>
+      <c r="BQ14">
+        <v>34</v>
+      </c>
+      <c r="BS14">
+        <v>35</v>
+      </c>
+      <c r="BU14">
+        <v>36</v>
+      </c>
+      <c r="BW14">
+        <v>37</v>
+      </c>
+      <c r="BY14">
+        <v>38</v>
+      </c>
+      <c r="CA14">
+        <v>39</v>
+      </c>
+      <c r="CC14">
+        <v>40</v>
+      </c>
+      <c r="CE14">
+        <v>41</v>
+      </c>
+      <c r="CG14">
+        <v>42</v>
+      </c>
+      <c r="CI14">
+        <v>43</v>
+      </c>
+      <c r="CK14">
+        <v>44</v>
+      </c>
+      <c r="CM14">
+        <v>45</v>
+      </c>
+      <c r="CO14">
+        <v>46</v>
+      </c>
+      <c r="CQ14">
+        <v>47</v>
+      </c>
+      <c r="CS14">
+        <v>48</v>
+      </c>
+      <c r="CU14">
+        <v>49</v>
+      </c>
+      <c r="CW14">
+        <v>50</v>
+      </c>
+      <c r="CY14">
+        <v>51</v>
+      </c>
+      <c r="DA14">
+        <v>52</v>
+      </c>
+      <c r="DC14">
+        <v>53</v>
+      </c>
+      <c r="DE14">
+        <v>54</v>
+      </c>
+      <c r="DG14">
+        <v>55</v>
+      </c>
+      <c r="DI14">
+        <v>56</v>
+      </c>
+      <c r="DK14">
+        <v>57</v>
+      </c>
+      <c r="DM14">
+        <v>58</v>
+      </c>
+      <c r="DO14">
+        <v>59</v>
+      </c>
+      <c r="DQ14">
+        <v>60</v>
+      </c>
+      <c r="DS14">
+        <v>61</v>
+      </c>
+      <c r="DU14">
+        <v>62</v>
+      </c>
+      <c r="DW14">
+        <v>63</v>
+      </c>
+      <c r="DY14">
+        <v>64</v>
+      </c>
+      <c r="EA14">
+        <v>65</v>
+      </c>
+      <c r="EC14">
+        <v>66</v>
+      </c>
+      <c r="EE14">
+        <v>67</v>
+      </c>
+      <c r="EG14">
+        <v>68</v>
+      </c>
+      <c r="EI14">
+        <v>69</v>
+      </c>
+      <c r="EK14">
+        <v>70</v>
+      </c>
+      <c r="EM14">
+        <v>71</v>
+      </c>
+      <c r="EO14">
+        <v>72</v>
+      </c>
+      <c r="EQ14">
+        <v>73</v>
+      </c>
+      <c r="ES14">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
